--- a/_CLUSTER/groups_time_area/Frost/combined/1_groups_are_combined.xlsx
+++ b/_CLUSTER/groups_time_area/Frost/combined/1_groups_are_combined.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_CLUSTER\groups_time_area\Frost\combined\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9523D6E6-429B-4586-852C-5D4052DE2D59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46965DD4-0270-4C5E-9D00-776220404A55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E7C6C3D5-4891-4F0C-9E0D-6B1669F09823}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{E7C6C3D5-4891-4F0C-9E0D-6B1669F09823}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="all" sheetId="1" r:id="rId1"/>
+    <sheet name="Fe_Mali_Sio2both" sheetId="2" r:id="rId2"/>
+    <sheet name="Fe_Mali_SiO2M" sheetId="3" r:id="rId3"/>
+    <sheet name="Fe_MALi" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="48">
   <si>
     <t>Area1</t>
   </si>
@@ -157,6 +160,27 @@
   <si>
     <t>Area4+5</t>
   </si>
+  <si>
+    <t>Area1_total</t>
+  </si>
+  <si>
+    <t>Area2_total</t>
+  </si>
+  <si>
+    <t>Are3_Pg</t>
+  </si>
+  <si>
+    <t>Area3_total</t>
+  </si>
+  <si>
+    <t>Area4_total</t>
+  </si>
+  <si>
+    <t>Area5_total</t>
+  </si>
+  <si>
+    <t>Area4+5_total</t>
+  </si>
 </sst>
 </file>
 
@@ -190,7 +214,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +236,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -283,6 +313,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -599,7 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C21261-3BC2-4C03-AB3F-5B995564177B}">
   <dimension ref="A1:X106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="T98" sqref="T98:T106"/>
     </sheetView>
   </sheetViews>
@@ -4494,4 +4528,6932 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C7598B-E580-4E87-88D4-38F99081630D}">
+  <dimension ref="A1:X73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A43" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>179</v>
+      </c>
+      <c r="D3">
+        <f>C3/469*100</f>
+        <v>38.166311300639663</v>
+      </c>
+      <c r="F3" s="4">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>94</v>
+      </c>
+      <c r="H3">
+        <f>G3/298*100</f>
+        <v>31.543624161073826</v>
+      </c>
+      <c r="J3" s="4">
+        <v>11</v>
+      </c>
+      <c r="K3">
+        <v>208</v>
+      </c>
+      <c r="L3">
+        <f>K3/630*100</f>
+        <v>33.015873015873012</v>
+      </c>
+      <c r="N3" s="9">
+        <v>11</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f>O3/3*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="R3" s="4">
+        <v>11</v>
+      </c>
+      <c r="S3">
+        <v>23</v>
+      </c>
+      <c r="T3">
+        <f>S3/57*100</f>
+        <v>40.350877192982452</v>
+      </c>
+      <c r="V3" s="9">
+        <v>11</v>
+      </c>
+      <c r="W3">
+        <f>C3+G3+K3+O3+S3</f>
+        <v>505</v>
+      </c>
+      <c r="X3">
+        <f>W3/$W$7*100</f>
+        <v>34.660260809883319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>125</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D7" si="0">C4/469*100</f>
+        <v>26.652452025586353</v>
+      </c>
+      <c r="F4" s="4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>41</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H7" si="1">G4/298*100</f>
+        <v>13.758389261744966</v>
+      </c>
+      <c r="J4" s="4">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>117</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L7" si="2">K4/630*100</f>
+        <v>18.571428571428573</v>
+      </c>
+      <c r="N4" s="4">
+        <v>12</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P7" si="3">O4/3*100</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>12</v>
+      </c>
+      <c r="S4">
+        <v>9</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T7" si="4">S4/57*100</f>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="V4" s="9">
+        <v>12</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W7" si="5">C4+G4+K4+O4+S4</f>
+        <v>292</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X7" si="6">W4/$W$7*100</f>
+        <v>20.041180507892932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>164</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>34.968017057569298</v>
+      </c>
+      <c r="F5" s="4">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>161</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>54.026845637583897</v>
+      </c>
+      <c r="J5" s="4">
+        <v>21</v>
+      </c>
+      <c r="K5">
+        <v>305</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>48.412698412698411</v>
+      </c>
+      <c r="N5" s="4">
+        <v>21</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="R5" s="4">
+        <v>21</v>
+      </c>
+      <c r="S5">
+        <v>25</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="4"/>
+        <v>43.859649122807014</v>
+      </c>
+      <c r="V5" s="9">
+        <v>21</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="5"/>
+        <v>657</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="6"/>
+        <v>45.092656142759097</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.21321961620469082</v>
+      </c>
+      <c r="F6" s="4">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.67114093959731547</v>
+      </c>
+      <c r="J6" s="4">
+        <v>22</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>22</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>22</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <v>22</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="6"/>
+        <v>0.20590253946465342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C7" s="6">
+        <f>SUM(C3:C6)</f>
+        <v>469</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G7" s="6">
+        <f>SUM(G3:G6)</f>
+        <v>298</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K7" s="6">
+        <f>SUM(K3:K6)</f>
+        <v>630</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="O7" s="6">
+        <f>SUM(O3:O6)</f>
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="S7" s="6">
+        <f>SUM(S3:S6)</f>
+        <v>57</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="5"/>
+        <v>1457</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="9">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f>G13/7*100</f>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="J13" s="4">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>213</v>
+      </c>
+      <c r="L13">
+        <f>K13/715*100</f>
+        <v>29.790209790209794</v>
+      </c>
+      <c r="N13" s="4">
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <v>92</v>
+      </c>
+      <c r="P13">
+        <f>O13/315*100</f>
+        <v>29.206349206349209</v>
+      </c>
+      <c r="V13" s="9">
+        <v>11</v>
+      </c>
+      <c r="W13">
+        <f>C13+G13+K13+O13</f>
+        <v>307</v>
+      </c>
+      <c r="X13">
+        <f>W13/$W$17*100</f>
+        <v>29.576107899807319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="9">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H17" si="7">G14/7*100</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="J14" s="4">
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <v>257</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:L17" si="8">K14/715*100</f>
+        <v>35.94405594405594</v>
+      </c>
+      <c r="N14" s="4">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>103</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:P17" si="9">O14/315*100</f>
+        <v>32.698412698412696</v>
+      </c>
+      <c r="V14" s="4">
+        <v>12</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ref="W14:W17" si="10">C14+G14+K14+O14</f>
+        <v>361</v>
+      </c>
+      <c r="X14">
+        <f t="shared" ref="X14:X17" si="11">W14/$W$17*100</f>
+        <v>34.778420038535643</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="F15" s="4">
+        <v>21</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="7"/>
+        <v>57.142857142857139</v>
+      </c>
+      <c r="J15" s="4">
+        <v>21</v>
+      </c>
+      <c r="K15">
+        <v>244</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="8"/>
+        <v>34.125874125874127</v>
+      </c>
+      <c r="N15" s="4">
+        <v>21</v>
+      </c>
+      <c r="O15">
+        <v>118</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="9"/>
+        <v>37.460317460317462</v>
+      </c>
+      <c r="V15" s="9">
+        <v>21</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="10"/>
+        <v>367</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="11"/>
+        <v>35.356454720616568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="9">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>22</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>22</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="8"/>
+        <v>0.13986013986013987</v>
+      </c>
+      <c r="N16" s="4">
+        <v>22</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="9"/>
+        <v>0.63492063492063489</v>
+      </c>
+      <c r="V16" s="9">
+        <v>22</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="11"/>
+        <v>0.28901734104046239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="G17" s="6">
+        <f>SUM(G13:G16)</f>
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="K17" s="6">
+        <f>SUM(K13:K16)</f>
+        <v>715</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="O17" s="6">
+        <f>SUM(O13:O16)</f>
+        <v>315</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="10"/>
+        <v>1038</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>33</v>
+      </c>
+      <c r="H23">
+        <f>G23/99*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="J23" s="4">
+        <v>11</v>
+      </c>
+      <c r="K23">
+        <v>319</v>
+      </c>
+      <c r="L23">
+        <f>K23/1002*100</f>
+        <v>31.836327345309378</v>
+      </c>
+      <c r="N23" s="4">
+        <v>11</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <f>O23/7*100</f>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="V23" s="9">
+        <v>11</v>
+      </c>
+      <c r="W23">
+        <f>C23+G23+K23+O23</f>
+        <v>354</v>
+      </c>
+      <c r="X23">
+        <f>W23/$W$27*100</f>
+        <v>31.920649233543735</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B24" s="9">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>31</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H27" si="12">G24/99*100</f>
+        <v>31.313131313131315</v>
+      </c>
+      <c r="J24" s="4">
+        <v>12</v>
+      </c>
+      <c r="K24">
+        <v>357</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24:L27" si="13">K24/1002*100</f>
+        <v>35.628742514970057</v>
+      </c>
+      <c r="N24" s="4">
+        <v>12</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24:P27" si="14">O24/7*100</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="V24" s="4">
+        <v>12</v>
+      </c>
+      <c r="W24">
+        <f t="shared" ref="W24:W27" si="15">C24+G24+K24+O24</f>
+        <v>389</v>
+      </c>
+      <c r="X24">
+        <f t="shared" ref="X24:X27" si="16">W24/$W$27*100</f>
+        <v>35.076645626690713</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B25" s="9">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="F25" s="4">
+        <v>21</v>
+      </c>
+      <c r="G25">
+        <v>35</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="12"/>
+        <v>35.353535353535356</v>
+      </c>
+      <c r="J25" s="4">
+        <v>21</v>
+      </c>
+      <c r="K25">
+        <v>321</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="13"/>
+        <v>32.035928143712574</v>
+      </c>
+      <c r="N25" s="4">
+        <v>21</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="14"/>
+        <v>57.142857142857139</v>
+      </c>
+      <c r="V25" s="9">
+        <v>21</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="15"/>
+        <v>361</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="16"/>
+        <v>32.55184851217313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B26" s="9">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>22</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>22</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="13"/>
+        <v>0.49900199600798401</v>
+      </c>
+      <c r="N26" s="4">
+        <v>22</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="9">
+        <v>22</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="16"/>
+        <v>0.45085662759242562</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="G27" s="6">
+        <f>SUM(G23:G26)</f>
+        <v>99</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="K27" s="6">
+        <f>SUM(K23:K26)</f>
+        <v>1002</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="O27" s="6">
+        <f>SUM(O23:O26)</f>
+        <v>7</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="15"/>
+        <v>1109</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B33" s="9">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>144</v>
+      </c>
+      <c r="H33">
+        <f>G33/456*100</f>
+        <v>31.578947368421051</v>
+      </c>
+      <c r="J33" s="9">
+        <v>11</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f>K33/3*100</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="4">
+        <v>11</v>
+      </c>
+      <c r="O33">
+        <v>5</v>
+      </c>
+      <c r="P33">
+        <f>O33/15*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="V33" s="9">
+        <v>11</v>
+      </c>
+      <c r="W33">
+        <f>C33+G33+K33+O33</f>
+        <v>149</v>
+      </c>
+      <c r="X33">
+        <f>W33/$W$37*100</f>
+        <v>31.368421052631579</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="F34" s="4">
+        <v>12</v>
+      </c>
+      <c r="G34">
+        <v>189</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:H37" si="17">G34/456*100</f>
+        <v>41.44736842105263</v>
+      </c>
+      <c r="J34" s="4">
+        <v>12</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ref="L34:L37" si="18">K34/3*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="N34" s="4">
+        <v>12</v>
+      </c>
+      <c r="O34">
+        <v>7</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ref="P34:P37" si="19">O34/15*100</f>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="V34" s="4">
+        <v>12</v>
+      </c>
+      <c r="W34">
+        <f t="shared" ref="W34:W37" si="20">C34+G34+K34+O34</f>
+        <v>199</v>
+      </c>
+      <c r="X34">
+        <f t="shared" ref="X34:X37" si="21">W34/$W$37*100</f>
+        <v>41.89473684210526</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B35" s="9">
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>21</v>
+      </c>
+      <c r="G35">
+        <v>120</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="17"/>
+        <v>26.315789473684209</v>
+      </c>
+      <c r="J35" s="4">
+        <v>21</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="18"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="N35" s="4">
+        <v>21</v>
+      </c>
+      <c r="O35">
+        <v>3</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="V35" s="9">
+        <v>21</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="20"/>
+        <v>124</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="21"/>
+        <v>26.105263157894736</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B36" s="9">
+        <v>22</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>22</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="17"/>
+        <v>0.6578947368421052</v>
+      </c>
+      <c r="J36" s="9">
+        <v>22</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="4">
+        <v>22</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="9">
+        <v>22</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="21"/>
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="G37" s="6">
+        <f>SUM(G33:G36)</f>
+        <v>456</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="K37" s="6">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="O37" s="6">
+        <f>SUM(O33:O36)</f>
+        <v>15</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="20"/>
+        <v>475</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B42" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V42" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>65</v>
+      </c>
+      <c r="D43">
+        <f>C43/164*100</f>
+        <v>39.634146341463413</v>
+      </c>
+      <c r="F43" s="4">
+        <v>11</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <f>G43/13*100</f>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="J43" s="9">
+        <v>11</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <f>K43/2*100</f>
+        <v>50</v>
+      </c>
+      <c r="V43" s="9">
+        <v>11</v>
+      </c>
+      <c r="W43">
+        <f>C43+G43+K43</f>
+        <v>68</v>
+      </c>
+      <c r="X43">
+        <f>W43/$W$47*100</f>
+        <v>37.988826815642454</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>47</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:D47" si="22">C44/164*100</f>
+        <v>28.658536585365852</v>
+      </c>
+      <c r="F44" s="4">
+        <v>12</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ref="H44:H47" si="23">G44/13*100</f>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="J44" s="4">
+        <v>12</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <f t="shared" ref="L44:L47" si="24">K44/2*100</f>
+        <v>50</v>
+      </c>
+      <c r="V44" s="4">
+        <v>12</v>
+      </c>
+      <c r="W44">
+        <f t="shared" ref="W44:W47" si="25">C44+G44+K44</f>
+        <v>49</v>
+      </c>
+      <c r="X44">
+        <f t="shared" ref="X44:X47" si="26">W44/$W$47*100</f>
+        <v>27.374301675977652</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>21</v>
+      </c>
+      <c r="C45">
+        <v>52</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="22"/>
+        <v>31.707317073170731</v>
+      </c>
+      <c r="F45" s="4">
+        <v>21</v>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="23"/>
+        <v>76.923076923076934</v>
+      </c>
+      <c r="J45" s="4">
+        <v>21</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="9">
+        <v>21</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="25"/>
+        <v>62</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="26"/>
+        <v>34.63687150837989</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>22</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="9">
+        <v>22</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="9">
+        <v>22</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C47" s="6">
+        <f>SUM(C43:C46)</f>
+        <v>164</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="G47" s="6">
+        <f>SUM(G43:G46)</f>
+        <v>13</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="23"/>
+        <v>100</v>
+      </c>
+      <c r="K47" s="6">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="24"/>
+        <v>100</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="25"/>
+        <v>179</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="26"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B51" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R51" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V51" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X51" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B52" s="9">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <f>C3+C13+C23</f>
+        <v>179</v>
+      </c>
+      <c r="D52">
+        <f>C52/$C$56*100</f>
+        <v>38.004246284501065</v>
+      </c>
+      <c r="F52" s="9">
+        <v>11</v>
+      </c>
+      <c r="G52">
+        <v>94</v>
+      </c>
+      <c r="H52">
+        <v>31.543624161073826</v>
+      </c>
+      <c r="J52" s="9">
+        <v>11</v>
+      </c>
+      <c r="K52">
+        <f>K3+G13+G23+C33</f>
+        <v>243</v>
+      </c>
+      <c r="L52">
+        <f>K52/$K$56*100</f>
+        <v>32.971506105834465</v>
+      </c>
+      <c r="N52" s="9">
+        <v>11</v>
+      </c>
+      <c r="O52">
+        <f>O3+K13+K23+G33+C43</f>
+        <v>742</v>
+      </c>
+      <c r="P52">
+        <f>O52/$O$56*100</f>
+        <v>31.709401709401707</v>
+      </c>
+      <c r="R52" s="9">
+        <v>11</v>
+      </c>
+      <c r="S52">
+        <f>O13+O23+K33+G43</f>
+        <v>96</v>
+      </c>
+      <c r="T52">
+        <f>S52/$S$56*100</f>
+        <v>28.402366863905325</v>
+      </c>
+      <c r="V52" s="9">
+        <v>11</v>
+      </c>
+      <c r="W52">
+        <f>S3+O33+K43</f>
+        <v>29</v>
+      </c>
+      <c r="X52">
+        <f>W52/$W$56*100</f>
+        <v>39.189189189189186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B53" s="4">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:C56" si="27">C4+C14+C24</f>
+        <v>125</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:D56" si="28">C53/$C$56*100</f>
+        <v>26.53927813163482</v>
+      </c>
+      <c r="F53" s="4">
+        <v>12</v>
+      </c>
+      <c r="G53">
+        <v>41</v>
+      </c>
+      <c r="H53">
+        <v>13.758389261744966</v>
+      </c>
+      <c r="J53" s="4">
+        <v>12</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ref="K53:K56" si="29">K4+G14+G24+C34</f>
+        <v>150</v>
+      </c>
+      <c r="L53">
+        <f t="shared" ref="L53:L56" si="30">K53/$K$56*100</f>
+        <v>20.352781546811396</v>
+      </c>
+      <c r="N53" s="4">
+        <v>12</v>
+      </c>
+      <c r="O53">
+        <f t="shared" ref="O53:O56" si="31">O4+K14+K24+G34+C44</f>
+        <v>850</v>
+      </c>
+      <c r="P53">
+        <f t="shared" ref="P53:P56" si="32">O53/$O$56*100</f>
+        <v>36.324786324786324</v>
+      </c>
+      <c r="R53" s="4">
+        <v>12</v>
+      </c>
+      <c r="S53">
+        <f t="shared" ref="S53:S56" si="33">O14+O24+K34+G44</f>
+        <v>107</v>
+      </c>
+      <c r="T53">
+        <f t="shared" ref="T53:T56" si="34">S53/$S$56*100</f>
+        <v>31.65680473372781</v>
+      </c>
+      <c r="V53" s="4">
+        <v>12</v>
+      </c>
+      <c r="W53">
+        <f t="shared" ref="W53:W56" si="35">S4+O34+K44</f>
+        <v>17</v>
+      </c>
+      <c r="X53">
+        <f t="shared" ref="X53:X56" si="36">W53/$W$56*100</f>
+        <v>22.972972972972975</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B54" s="9">
+        <v>21</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="27"/>
+        <v>166</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="28"/>
+        <v>35.244161358811041</v>
+      </c>
+      <c r="F54" s="9">
+        <v>21</v>
+      </c>
+      <c r="G54">
+        <v>161</v>
+      </c>
+      <c r="H54">
+        <v>54.026845637583897</v>
+      </c>
+      <c r="J54" s="9">
+        <v>21</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="29"/>
+        <v>344</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="30"/>
+        <v>46.675712347354136</v>
+      </c>
+      <c r="N54" s="9">
+        <v>21</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="31"/>
+        <v>739</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="32"/>
+        <v>31.581196581196579</v>
+      </c>
+      <c r="R54" s="9">
+        <v>21</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="33"/>
+        <v>133</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="34"/>
+        <v>39.349112426035504</v>
+      </c>
+      <c r="V54" s="9">
+        <v>21</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="35"/>
+        <v>28</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="36"/>
+        <v>37.837837837837839</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B55" s="9">
+        <v>22</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="28"/>
+        <v>0.21231422505307856</v>
+      </c>
+      <c r="F55" s="9">
+        <v>22</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>0.67114093959731547</v>
+      </c>
+      <c r="J55" s="9">
+        <v>22</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="9">
+        <v>22</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="31"/>
+        <v>9</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="32"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="R55" s="9">
+        <v>22</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="34"/>
+        <v>0.59171597633136097</v>
+      </c>
+      <c r="V55" s="9">
+        <v>22</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <f t="shared" si="27"/>
+        <v>471</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="28"/>
+        <v>100</v>
+      </c>
+      <c r="G56">
+        <v>298</v>
+      </c>
+      <c r="H56">
+        <v>100</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="29"/>
+        <v>737</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="31"/>
+        <v>2340</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="32"/>
+        <v>100</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="33"/>
+        <v>338</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="34"/>
+        <v>100</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="35"/>
+        <v>74</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="36"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B60" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R60" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V60" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B61" s="9">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <f>C52+G52+K52+O52+S52+W52</f>
+        <v>1383</v>
+      </c>
+      <c r="D61">
+        <f>C61/$C$65*100</f>
+        <v>32.480037576326914</v>
+      </c>
+      <c r="F61" s="9">
+        <v>11</v>
+      </c>
+      <c r="G61">
+        <v>505</v>
+      </c>
+      <c r="H61">
+        <v>34.660260809883319</v>
+      </c>
+      <c r="J61" s="9">
+        <v>11</v>
+      </c>
+      <c r="K61">
+        <v>307</v>
+      </c>
+      <c r="L61">
+        <v>29.576107899807319</v>
+      </c>
+      <c r="N61" s="9">
+        <v>11</v>
+      </c>
+      <c r="O61">
+        <v>354</v>
+      </c>
+      <c r="P61">
+        <v>31.920649233543735</v>
+      </c>
+      <c r="R61" s="9">
+        <v>11</v>
+      </c>
+      <c r="S61">
+        <v>149</v>
+      </c>
+      <c r="T61">
+        <v>31.368421052631579</v>
+      </c>
+      <c r="V61" s="9">
+        <v>11</v>
+      </c>
+      <c r="W61">
+        <v>68</v>
+      </c>
+      <c r="X61">
+        <v>37.988826815642454</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B62" s="4">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62:C65" si="37">C53+G53+K53+O53+S53+W53</f>
+        <v>1290</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62:D65" si="38">C62/$C$65*100</f>
+        <v>30.295913574448097</v>
+      </c>
+      <c r="F62" s="4">
+        <v>12</v>
+      </c>
+      <c r="G62">
+        <v>292</v>
+      </c>
+      <c r="H62">
+        <v>20.041180507892932</v>
+      </c>
+      <c r="J62" s="4">
+        <v>12</v>
+      </c>
+      <c r="K62">
+        <v>361</v>
+      </c>
+      <c r="L62">
+        <v>34.778420038535643</v>
+      </c>
+      <c r="N62" s="4">
+        <v>12</v>
+      </c>
+      <c r="O62">
+        <v>389</v>
+      </c>
+      <c r="P62">
+        <v>35.076645626690713</v>
+      </c>
+      <c r="R62" s="4">
+        <v>12</v>
+      </c>
+      <c r="S62">
+        <v>199</v>
+      </c>
+      <c r="T62">
+        <v>41.89473684210526</v>
+      </c>
+      <c r="V62" s="4">
+        <v>12</v>
+      </c>
+      <c r="W62">
+        <v>49</v>
+      </c>
+      <c r="X62">
+        <v>27.374301675977652</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B63" s="9">
+        <v>21</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="37"/>
+        <v>1571</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="38"/>
+        <v>36.895255988727101</v>
+      </c>
+      <c r="F63" s="9">
+        <v>21</v>
+      </c>
+      <c r="G63">
+        <v>657</v>
+      </c>
+      <c r="H63">
+        <v>45.092656142759097</v>
+      </c>
+      <c r="J63" s="9">
+        <v>21</v>
+      </c>
+      <c r="K63">
+        <v>367</v>
+      </c>
+      <c r="L63">
+        <v>35.356454720616568</v>
+      </c>
+      <c r="N63" s="9">
+        <v>21</v>
+      </c>
+      <c r="O63">
+        <v>361</v>
+      </c>
+      <c r="P63">
+        <v>32.55184851217313</v>
+      </c>
+      <c r="R63" s="9">
+        <v>21</v>
+      </c>
+      <c r="S63">
+        <v>124</v>
+      </c>
+      <c r="T63">
+        <v>26.105263157894736</v>
+      </c>
+      <c r="V63" s="9">
+        <v>21</v>
+      </c>
+      <c r="W63">
+        <v>62</v>
+      </c>
+      <c r="X63">
+        <v>34.63687150837989</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B64" s="9">
+        <v>22</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="37"/>
+        <v>14</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="38"/>
+        <v>0.32879286049788631</v>
+      </c>
+      <c r="F64" s="9">
+        <v>22</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <v>0.20590253946465342</v>
+      </c>
+      <c r="J64" s="9">
+        <v>22</v>
+      </c>
+      <c r="K64">
+        <v>3</v>
+      </c>
+      <c r="L64">
+        <v>0.28901734104046239</v>
+      </c>
+      <c r="N64" s="9">
+        <v>22</v>
+      </c>
+      <c r="O64">
+        <v>5</v>
+      </c>
+      <c r="P64">
+        <v>0.45085662759242562</v>
+      </c>
+      <c r="R64" s="9">
+        <v>22</v>
+      </c>
+      <c r="S64">
+        <v>3</v>
+      </c>
+      <c r="T64">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="V64" s="9">
+        <v>22</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <f t="shared" si="37"/>
+        <v>4258</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+      <c r="G65">
+        <v>1457</v>
+      </c>
+      <c r="H65">
+        <v>100</v>
+      </c>
+      <c r="K65">
+        <v>1038</v>
+      </c>
+      <c r="L65">
+        <v>100</v>
+      </c>
+      <c r="O65">
+        <v>1109</v>
+      </c>
+      <c r="P65">
+        <v>100</v>
+      </c>
+      <c r="S65">
+        <v>475</v>
+      </c>
+      <c r="T65">
+        <v>100</v>
+      </c>
+      <c r="W65">
+        <v>179</v>
+      </c>
+      <c r="X65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R68" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R69" s="9">
+        <v>11</v>
+      </c>
+      <c r="S69">
+        <f>S61+W61</f>
+        <v>217</v>
+      </c>
+      <c r="T69">
+        <f>S69/$S$73*100</f>
+        <v>33.180428134556578</v>
+      </c>
+    </row>
+    <row r="70" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R70" s="4">
+        <v>12</v>
+      </c>
+      <c r="S70">
+        <f t="shared" ref="S70:S73" si="39">S62+W62</f>
+        <v>248</v>
+      </c>
+      <c r="T70">
+        <f t="shared" ref="T70:T73" si="40">S70/$S$73*100</f>
+        <v>37.920489296636084</v>
+      </c>
+    </row>
+    <row r="71" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R71" s="9">
+        <v>21</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="39"/>
+        <v>186</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="40"/>
+        <v>28.440366972477065</v>
+      </c>
+    </row>
+    <row r="72" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R72" s="9">
+        <v>22</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="39"/>
+        <v>3</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="40"/>
+        <v>0.45871559633027525</v>
+      </c>
+    </row>
+    <row r="73" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="S73">
+        <f t="shared" si="39"/>
+        <v>654</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="40"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61514670-2E9C-41DF-9AEC-ED267D82DCAB}">
+  <dimension ref="A1:X73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>260</v>
+      </c>
+      <c r="D3">
+        <f>C3/469*100</f>
+        <v>55.437100213219615</v>
+      </c>
+      <c r="F3" s="4">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>117</v>
+      </c>
+      <c r="H3">
+        <f>G3/298*100</f>
+        <v>39.261744966442954</v>
+      </c>
+      <c r="J3" s="4">
+        <v>11</v>
+      </c>
+      <c r="K3">
+        <v>258</v>
+      </c>
+      <c r="L3">
+        <f>K3/630*100</f>
+        <v>40.952380952380949</v>
+      </c>
+      <c r="N3" s="9">
+        <v>11</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f>O3/3*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="R3" s="4">
+        <v>11</v>
+      </c>
+      <c r="S3">
+        <v>27</v>
+      </c>
+      <c r="T3">
+        <f>S3/57*100</f>
+        <v>47.368421052631575</v>
+      </c>
+      <c r="V3" s="9">
+        <v>11</v>
+      </c>
+      <c r="W3">
+        <f>C3+G3+K3+O3+S3</f>
+        <v>663</v>
+      </c>
+      <c r="X3">
+        <f>W3/$W$7*100</f>
+        <v>45.504461221688402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D7" si="0">C4/469*100</f>
+        <v>9.3816631130063968</v>
+      </c>
+      <c r="F4" s="4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H7" si="1">G4/298*100</f>
+        <v>6.0402684563758395</v>
+      </c>
+      <c r="J4" s="4">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>67</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L7" si="2">K4/630*100</f>
+        <v>10.634920634920634</v>
+      </c>
+      <c r="N4" s="4">
+        <v>12</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P7" si="3">O4/3*100</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>12</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T7" si="4">S4/57*100</f>
+        <v>8.7719298245614024</v>
+      </c>
+      <c r="V4" s="9">
+        <v>12</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W7" si="5">C4+G4+K4+O4+S4</f>
+        <v>134</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X7" si="6">W4/$W$7*100</f>
+        <v>9.1969800960878523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>89</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>18.976545842217483</v>
+      </c>
+      <c r="F5" s="4">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>77</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>25.838926174496645</v>
+      </c>
+      <c r="J5" s="4">
+        <v>21</v>
+      </c>
+      <c r="K5">
+        <v>155</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>24.603174603174601</v>
+      </c>
+      <c r="N5" s="4">
+        <v>21</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="R5" s="4">
+        <v>21</v>
+      </c>
+      <c r="S5">
+        <v>13</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="4"/>
+        <v>22.807017543859647</v>
+      </c>
+      <c r="V5" s="9">
+        <v>21</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="5"/>
+        <v>335</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="6"/>
+        <v>22.992450240219632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>76</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>16.204690831556505</v>
+      </c>
+      <c r="F6" s="4">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>86</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>28.859060402684566</v>
+      </c>
+      <c r="J6" s="4">
+        <v>22</v>
+      </c>
+      <c r="K6">
+        <v>150</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>23.809523809523807</v>
+      </c>
+      <c r="N6" s="9">
+        <v>22</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="R6" s="4">
+        <v>22</v>
+      </c>
+      <c r="S6">
+        <v>12</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>21.052631578947366</v>
+      </c>
+      <c r="V6" s="9">
+        <v>22</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="5"/>
+        <v>325</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="6"/>
+        <v>22.30610844200412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C7" s="6">
+        <f>SUM(C3:C6)</f>
+        <v>469</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G7" s="6">
+        <f>SUM(G3:G6)</f>
+        <v>298</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K7" s="6">
+        <f>SUM(K3:K6)</f>
+        <v>630</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="O7" s="6">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="S7" s="6">
+        <f>SUM(S3:S6)</f>
+        <v>57</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="5"/>
+        <v>1457</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="9">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f>G13/7*100</f>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="J13" s="4">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>405</v>
+      </c>
+      <c r="L13">
+        <f>K13/715*100</f>
+        <v>56.643356643356647</v>
+      </c>
+      <c r="N13" s="4">
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <v>170</v>
+      </c>
+      <c r="P13">
+        <f>O13/315*100</f>
+        <v>53.968253968253968</v>
+      </c>
+      <c r="V13" s="9">
+        <v>11</v>
+      </c>
+      <c r="W13">
+        <f>C13+G13+K13+O13</f>
+        <v>577</v>
+      </c>
+      <c r="X13">
+        <f>W13/$W$17*100</f>
+        <v>55.587668593448939</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="9">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>12</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H17" si="7">G14/7*100</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="J14" s="4">
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <v>65</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:L17" si="8">K14/715*100</f>
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="N14" s="4">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>25</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:P17" si="9">O14/315*100</f>
+        <v>7.9365079365079358</v>
+      </c>
+      <c r="V14" s="4">
+        <v>12</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ref="W14:W17" si="10">C14+G14+K14+O14</f>
+        <v>91</v>
+      </c>
+      <c r="X14">
+        <f t="shared" ref="X14:X17" si="11">W14/$W$17*100</f>
+        <v>8.7668593448940264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="F15" s="4">
+        <v>21</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="7"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="J15" s="4">
+        <v>21</v>
+      </c>
+      <c r="K15">
+        <v>128</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="8"/>
+        <v>17.902097902097903</v>
+      </c>
+      <c r="N15" s="4">
+        <v>21</v>
+      </c>
+      <c r="O15">
+        <v>58</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="9"/>
+        <v>18.412698412698415</v>
+      </c>
+      <c r="V15" s="9">
+        <v>21</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="10"/>
+        <v>188</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="11"/>
+        <v>18.111753371868978</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="9">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>22</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="7"/>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="J16" s="4">
+        <v>22</v>
+      </c>
+      <c r="K16">
+        <v>117</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="8"/>
+        <v>16.363636363636363</v>
+      </c>
+      <c r="N16" s="4">
+        <v>22</v>
+      </c>
+      <c r="O16">
+        <v>62</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="9"/>
+        <v>19.682539682539684</v>
+      </c>
+      <c r="V16" s="9">
+        <v>22</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="10"/>
+        <v>182</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="11"/>
+        <v>17.533718689788053</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="G17" s="6">
+        <f>SUM(G13:G16)</f>
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="K17" s="6">
+        <f>SUM(K13:K16)</f>
+        <v>715</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="O17" s="6">
+        <f>SUM(O13:O16)</f>
+        <v>315</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="10"/>
+        <v>1038</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>55</v>
+      </c>
+      <c r="H23">
+        <f>G23/99*100</f>
+        <v>55.555555555555557</v>
+      </c>
+      <c r="J23" s="4">
+        <v>11</v>
+      </c>
+      <c r="K23">
+        <v>584</v>
+      </c>
+      <c r="L23">
+        <f>K23/1002*100</f>
+        <v>58.28343313373253</v>
+      </c>
+      <c r="N23" s="4">
+        <v>11</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <f>O23/7*100</f>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="V23" s="9">
+        <v>11</v>
+      </c>
+      <c r="W23">
+        <f>C23+G23+K23+O23</f>
+        <v>642</v>
+      </c>
+      <c r="X23">
+        <f>W23/$W$27*100</f>
+        <v>57.889990982867445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B24" s="9">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>12</v>
+      </c>
+      <c r="G24" s="6">
+        <v>9</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H27" si="12">G24/99*100</f>
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="J24" s="4">
+        <v>12</v>
+      </c>
+      <c r="K24">
+        <v>92</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24:L27" si="13">K24/1002*100</f>
+        <v>9.1816367265469054</v>
+      </c>
+      <c r="N24" s="4">
+        <v>12</v>
+      </c>
+      <c r="O24" s="6">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24:P27" si="14">O24/7*100</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="4">
+        <v>12</v>
+      </c>
+      <c r="W24">
+        <f t="shared" ref="W24:W27" si="15">C24+G24+K24+O24</f>
+        <v>101</v>
+      </c>
+      <c r="X24">
+        <f t="shared" ref="X24:X27" si="16">W24/$W$27*100</f>
+        <v>9.1073038773669968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B25" s="9">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>21</v>
+      </c>
+      <c r="G25">
+        <v>19</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="12"/>
+        <v>19.19191919191919</v>
+      </c>
+      <c r="J25" s="4">
+        <v>21</v>
+      </c>
+      <c r="K25">
+        <v>154</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="13"/>
+        <v>15.369261477045908</v>
+      </c>
+      <c r="N25" s="4">
+        <v>21</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="14"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="V25" s="9">
+        <v>21</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="15"/>
+        <v>174</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="16"/>
+        <v>15.689810640216411</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B26" s="9">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="F26" s="4">
+        <v>22</v>
+      </c>
+      <c r="G26">
+        <v>16</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="12"/>
+        <v>16.161616161616163</v>
+      </c>
+      <c r="J26" s="4">
+        <v>22</v>
+      </c>
+      <c r="K26">
+        <v>172</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="13"/>
+        <v>17.165668662674651</v>
+      </c>
+      <c r="N26" s="4">
+        <v>22</v>
+      </c>
+      <c r="O26">
+        <v>3</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="14"/>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="V26" s="9">
+        <v>22</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="15"/>
+        <v>192</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="16"/>
+        <v>17.312894499549145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="G27" s="6">
+        <f>SUM(G23:G26)</f>
+        <v>99</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="K27" s="6">
+        <f>SUM(K23:K26)</f>
+        <v>1002</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="O27">
+        <v>7</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="15"/>
+        <v>1109</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B33" s="9">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="F33" s="4">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>283</v>
+      </c>
+      <c r="H33">
+        <f>G33/456*100</f>
+        <v>62.061403508771932</v>
+      </c>
+      <c r="J33" s="9">
+        <v>11</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <f>K33/3*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="N33" s="4">
+        <v>11</v>
+      </c>
+      <c r="O33">
+        <v>10</v>
+      </c>
+      <c r="P33">
+        <f>O33/15*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="V33" s="9">
+        <v>11</v>
+      </c>
+      <c r="W33">
+        <f>C33+G33+K33+O33</f>
+        <v>296</v>
+      </c>
+      <c r="X33">
+        <f>W33/$W$37*100</f>
+        <v>62.315789473684212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>12</v>
+      </c>
+      <c r="G34">
+        <v>50</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:H37" si="17">G34/456*100</f>
+        <v>10.964912280701753</v>
+      </c>
+      <c r="J34" s="9">
+        <v>12</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ref="L34:L37" si="18">K34/3*100</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
+        <v>12</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ref="P34:P37" si="19">O34/15*100</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="V34" s="4">
+        <v>12</v>
+      </c>
+      <c r="W34">
+        <f t="shared" ref="W34:W37" si="20">C34+G34+K34+O34</f>
+        <v>52</v>
+      </c>
+      <c r="X34">
+        <f t="shared" ref="X34:X37" si="21">W34/$W$37*100</f>
+        <v>10.947368421052632</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B35" s="9">
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>21</v>
+      </c>
+      <c r="G35">
+        <v>55</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="17"/>
+        <v>12.06140350877193</v>
+      </c>
+      <c r="J35" s="4">
+        <v>21</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="4">
+        <v>21</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="19"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="V35" s="9">
+        <v>21</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="20"/>
+        <v>57</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B36" s="9">
+        <v>22</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>22</v>
+      </c>
+      <c r="G36">
+        <v>68</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="17"/>
+        <v>14.912280701754385</v>
+      </c>
+      <c r="J36" s="4">
+        <v>22</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="18"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="N36" s="4">
+        <v>22</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="19"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="V36" s="9">
+        <v>22</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="21"/>
+        <v>14.736842105263156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="G37" s="6">
+        <f>SUM(G33:G36)</f>
+        <v>456</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="O37" s="6">
+        <f>SUM(O33:O36)</f>
+        <v>15</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="20"/>
+        <v>475</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B42" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V42" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>89</v>
+      </c>
+      <c r="D43">
+        <f>C43/164*100</f>
+        <v>54.268292682926834</v>
+      </c>
+      <c r="F43" s="4">
+        <v>11</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <f>G43/13*100</f>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="J43" s="9">
+        <v>11</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>50</v>
+      </c>
+      <c r="V43" s="9">
+        <v>11</v>
+      </c>
+      <c r="W43">
+        <f>C43+G43+K43</f>
+        <v>92</v>
+      </c>
+      <c r="X43">
+        <f>W43/$W$47*100</f>
+        <v>51.396648044692739</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>23</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:D47" si="22">C44/164*100</f>
+        <v>14.02439024390244</v>
+      </c>
+      <c r="F44" s="4">
+        <v>12</v>
+      </c>
+      <c r="G44" s="6">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ref="H44:H47" si="23">G44/13*100</f>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="J44" s="4">
+        <v>12</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>50</v>
+      </c>
+      <c r="V44" s="4">
+        <v>12</v>
+      </c>
+      <c r="W44">
+        <f t="shared" ref="W44:W47" si="24">C44+G44+K44</f>
+        <v>25</v>
+      </c>
+      <c r="X44">
+        <f t="shared" ref="X44:X47" si="25">W44/$W$47*100</f>
+        <v>13.966480446927374</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>21</v>
+      </c>
+      <c r="C45">
+        <v>25</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="22"/>
+        <v>15.24390243902439</v>
+      </c>
+      <c r="F45" s="4">
+        <v>21</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="23"/>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="J45" s="4">
+        <v>21</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="V45" s="9">
+        <v>21</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="24"/>
+        <v>27</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="25"/>
+        <v>15.083798882681565</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <v>27</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="22"/>
+        <v>16.463414634146343</v>
+      </c>
+      <c r="F46" s="4">
+        <v>22</v>
+      </c>
+      <c r="G46">
+        <v>8</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="23"/>
+        <v>61.53846153846154</v>
+      </c>
+      <c r="J46" s="9">
+        <v>22</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="V46" s="9">
+        <v>22</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="24"/>
+        <v>35</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="25"/>
+        <v>19.553072625698324</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C47" s="6">
+        <f>SUM(C43:C46)</f>
+        <v>164</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="G47" s="6">
+        <f>SUM(G43:G46)</f>
+        <v>13</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="23"/>
+        <v>100</v>
+      </c>
+      <c r="K47" s="6">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>100</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="24"/>
+        <v>179</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B51" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R51" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V51" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X51" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B52" s="9">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <f>C3+C13+C23</f>
+        <v>260</v>
+      </c>
+      <c r="D52">
+        <f>C52/$C$56*100</f>
+        <v>55.201698513800423</v>
+      </c>
+      <c r="F52" s="9">
+        <v>11</v>
+      </c>
+      <c r="G52">
+        <v>117</v>
+      </c>
+      <c r="H52">
+        <v>39.261744966442954</v>
+      </c>
+      <c r="J52" s="9">
+        <v>11</v>
+      </c>
+      <c r="K52">
+        <f>K3+G13+G23+C33</f>
+        <v>316</v>
+      </c>
+      <c r="L52">
+        <f>K52/$K$56*100</f>
+        <v>42.876526458616013</v>
+      </c>
+      <c r="N52" s="9">
+        <v>11</v>
+      </c>
+      <c r="O52">
+        <f>O3+K13+K23+G33+C43</f>
+        <v>1362</v>
+      </c>
+      <c r="P52">
+        <f>O52/$O$56*100</f>
+        <v>58.205128205128212</v>
+      </c>
+      <c r="R52" s="9">
+        <v>11</v>
+      </c>
+      <c r="S52">
+        <f>O13+O23+K33+G43</f>
+        <v>177</v>
+      </c>
+      <c r="T52">
+        <f>S52/$S$56*100</f>
+        <v>52.366863905325445</v>
+      </c>
+      <c r="V52" s="9">
+        <v>11</v>
+      </c>
+      <c r="W52">
+        <f>S3+O33+K43</f>
+        <v>38</v>
+      </c>
+      <c r="X52">
+        <f>W52/$W$56*100</f>
+        <v>51.351351351351347</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B53" s="4">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:C56" si="26">C4+C14+C24</f>
+        <v>44</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:D56" si="27">C53/$C$56*100</f>
+        <v>9.3418259023354562</v>
+      </c>
+      <c r="F53" s="4">
+        <v>12</v>
+      </c>
+      <c r="G53">
+        <v>18</v>
+      </c>
+      <c r="H53">
+        <v>6.0402684563758395</v>
+      </c>
+      <c r="J53" s="4">
+        <v>12</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ref="K53:K56" si="28">K4+G14+G24+C34</f>
+        <v>77</v>
+      </c>
+      <c r="L53">
+        <f t="shared" ref="L53:L56" si="29">K53/$K$56*100</f>
+        <v>10.44776119402985</v>
+      </c>
+      <c r="N53" s="4">
+        <v>12</v>
+      </c>
+      <c r="O53">
+        <f t="shared" ref="O53:O56" si="30">O4+K14+K24+G34+C44</f>
+        <v>230</v>
+      </c>
+      <c r="P53">
+        <f t="shared" ref="P53:P56" si="31">O53/$O$56*100</f>
+        <v>9.8290598290598297</v>
+      </c>
+      <c r="R53" s="4">
+        <v>12</v>
+      </c>
+      <c r="S53">
+        <f t="shared" ref="S53:S56" si="32">O14+O24+K34+G44</f>
+        <v>26</v>
+      </c>
+      <c r="T53">
+        <f t="shared" ref="T53:T56" si="33">S53/$S$56*100</f>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="V53" s="4">
+        <v>12</v>
+      </c>
+      <c r="W53">
+        <f t="shared" ref="W53:W56" si="34">S4+O34+K44</f>
+        <v>8</v>
+      </c>
+      <c r="X53">
+        <f t="shared" ref="X53:X56" si="35">W53/$W$56*100</f>
+        <v>10.810810810810811</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B54" s="9">
+        <v>21</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="26"/>
+        <v>90</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="27"/>
+        <v>19.108280254777071</v>
+      </c>
+      <c r="F54" s="9">
+        <v>21</v>
+      </c>
+      <c r="G54">
+        <v>77</v>
+      </c>
+      <c r="H54">
+        <v>25.838926174496645</v>
+      </c>
+      <c r="J54" s="9">
+        <v>21</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="28"/>
+        <v>175</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="29"/>
+        <v>23.744911804613299</v>
+      </c>
+      <c r="N54" s="9">
+        <v>21</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="30"/>
+        <v>363</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="31"/>
+        <v>15.512820512820513</v>
+      </c>
+      <c r="R54" s="9">
+        <v>21</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="32"/>
+        <v>61</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="33"/>
+        <v>18.047337278106511</v>
+      </c>
+      <c r="V54" s="9">
+        <v>21</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="34"/>
+        <v>15</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="35"/>
+        <v>20.27027027027027</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B55" s="9">
+        <v>22</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="26"/>
+        <v>77</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="27"/>
+        <v>16.348195329087048</v>
+      </c>
+      <c r="F55" s="9">
+        <v>22</v>
+      </c>
+      <c r="G55">
+        <v>86</v>
+      </c>
+      <c r="H55">
+        <v>28.859060402684566</v>
+      </c>
+      <c r="J55" s="9">
+        <v>22</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="28"/>
+        <v>169</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="29"/>
+        <v>22.930800542740844</v>
+      </c>
+      <c r="N55" s="9">
+        <v>22</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="30"/>
+        <v>385</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="31"/>
+        <v>16.452991452991451</v>
+      </c>
+      <c r="R55" s="9">
+        <v>22</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="32"/>
+        <v>74</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="33"/>
+        <v>21.893491124260358</v>
+      </c>
+      <c r="V55" s="9">
+        <v>22</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="34"/>
+        <v>13</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="35"/>
+        <v>17.567567567567568</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <f t="shared" si="26"/>
+        <v>471</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="G56">
+        <v>298</v>
+      </c>
+      <c r="H56">
+        <v>100</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="28"/>
+        <v>737</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="29"/>
+        <v>100</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="30"/>
+        <v>2340</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="31"/>
+        <v>100</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="32"/>
+        <v>338</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="33"/>
+        <v>100</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="34"/>
+        <v>74</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="35"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B60" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R60" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V60" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B61" s="9">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <f>C52+G52+K52+O52+S52+W52</f>
+        <v>2270</v>
+      </c>
+      <c r="D61">
+        <f>C61/$C$65*100</f>
+        <v>53.311413809300149</v>
+      </c>
+      <c r="F61" s="9">
+        <v>11</v>
+      </c>
+      <c r="G61">
+        <v>663</v>
+      </c>
+      <c r="H61">
+        <v>45.504461221688402</v>
+      </c>
+      <c r="J61" s="9">
+        <v>11</v>
+      </c>
+      <c r="K61">
+        <v>577</v>
+      </c>
+      <c r="L61">
+        <v>55.587668593448939</v>
+      </c>
+      <c r="N61" s="9">
+        <v>11</v>
+      </c>
+      <c r="O61">
+        <v>642</v>
+      </c>
+      <c r="P61">
+        <v>57.889990982867445</v>
+      </c>
+      <c r="R61" s="9">
+        <v>11</v>
+      </c>
+      <c r="S61">
+        <v>296</v>
+      </c>
+      <c r="T61">
+        <v>62.315789473684212</v>
+      </c>
+      <c r="V61" s="9">
+        <v>11</v>
+      </c>
+      <c r="W61">
+        <v>92</v>
+      </c>
+      <c r="X61">
+        <v>51.396648044692739</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B62" s="4">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62:C65" si="36">C53+G53+K53+O53+S53+W53</f>
+        <v>403</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62:D65" si="37">C62/$C$65*100</f>
+        <v>9.4645373414748715</v>
+      </c>
+      <c r="F62" s="4">
+        <v>12</v>
+      </c>
+      <c r="G62">
+        <v>134</v>
+      </c>
+      <c r="H62">
+        <v>9.1969800960878523</v>
+      </c>
+      <c r="J62" s="4">
+        <v>12</v>
+      </c>
+      <c r="K62">
+        <v>91</v>
+      </c>
+      <c r="L62">
+        <v>8.7668593448940264</v>
+      </c>
+      <c r="N62" s="4">
+        <v>12</v>
+      </c>
+      <c r="O62">
+        <v>101</v>
+      </c>
+      <c r="P62">
+        <v>9.1073038773669968</v>
+      </c>
+      <c r="R62" s="4">
+        <v>12</v>
+      </c>
+      <c r="S62">
+        <v>52</v>
+      </c>
+      <c r="T62">
+        <v>10.947368421052632</v>
+      </c>
+      <c r="V62" s="4">
+        <v>12</v>
+      </c>
+      <c r="W62">
+        <v>25</v>
+      </c>
+      <c r="X62">
+        <v>13.966480446927374</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B63" s="9">
+        <v>21</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="36"/>
+        <v>781</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="37"/>
+        <v>18.3419445749178</v>
+      </c>
+      <c r="F63" s="9">
+        <v>21</v>
+      </c>
+      <c r="G63">
+        <v>335</v>
+      </c>
+      <c r="H63">
+        <v>22.992450240219632</v>
+      </c>
+      <c r="J63" s="9">
+        <v>21</v>
+      </c>
+      <c r="K63">
+        <v>188</v>
+      </c>
+      <c r="L63">
+        <v>18.111753371868978</v>
+      </c>
+      <c r="N63" s="9">
+        <v>21</v>
+      </c>
+      <c r="O63">
+        <v>174</v>
+      </c>
+      <c r="P63">
+        <v>15.689810640216411</v>
+      </c>
+      <c r="R63" s="9">
+        <v>21</v>
+      </c>
+      <c r="S63">
+        <v>57</v>
+      </c>
+      <c r="T63">
+        <v>12</v>
+      </c>
+      <c r="V63" s="9">
+        <v>21</v>
+      </c>
+      <c r="W63">
+        <v>27</v>
+      </c>
+      <c r="X63">
+        <v>15.083798882681565</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B64" s="9">
+        <v>22</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="36"/>
+        <v>804</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="37"/>
+        <v>18.882104274307189</v>
+      </c>
+      <c r="F64" s="9">
+        <v>22</v>
+      </c>
+      <c r="G64">
+        <v>325</v>
+      </c>
+      <c r="H64">
+        <v>22.30610844200412</v>
+      </c>
+      <c r="J64" s="9">
+        <v>22</v>
+      </c>
+      <c r="K64">
+        <v>182</v>
+      </c>
+      <c r="L64">
+        <v>17.533718689788053</v>
+      </c>
+      <c r="N64" s="9">
+        <v>22</v>
+      </c>
+      <c r="O64">
+        <v>192</v>
+      </c>
+      <c r="P64">
+        <v>17.312894499549145</v>
+      </c>
+      <c r="R64" s="9">
+        <v>22</v>
+      </c>
+      <c r="S64">
+        <v>70</v>
+      </c>
+      <c r="T64">
+        <v>14.736842105263156</v>
+      </c>
+      <c r="V64" s="9">
+        <v>22</v>
+      </c>
+      <c r="W64">
+        <v>35</v>
+      </c>
+      <c r="X64">
+        <v>19.553072625698324</v>
+      </c>
+    </row>
+    <row r="65" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <f t="shared" si="36"/>
+        <v>4258</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="37"/>
+        <v>100</v>
+      </c>
+      <c r="G65">
+        <v>1457</v>
+      </c>
+      <c r="H65">
+        <v>100</v>
+      </c>
+      <c r="K65">
+        <v>1038</v>
+      </c>
+      <c r="L65">
+        <v>100</v>
+      </c>
+      <c r="O65">
+        <v>1109</v>
+      </c>
+      <c r="P65">
+        <v>100</v>
+      </c>
+      <c r="S65">
+        <v>475</v>
+      </c>
+      <c r="T65">
+        <v>100</v>
+      </c>
+      <c r="W65">
+        <v>179</v>
+      </c>
+      <c r="X65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R68" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R69" s="9">
+        <v>11</v>
+      </c>
+      <c r="S69">
+        <f>S61+W61</f>
+        <v>388</v>
+      </c>
+      <c r="T69">
+        <f>S69/$S$73*100</f>
+        <v>59.327217125382262</v>
+      </c>
+    </row>
+    <row r="70" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R70" s="4">
+        <v>12</v>
+      </c>
+      <c r="S70">
+        <f t="shared" ref="S70:S73" si="38">S62+W62</f>
+        <v>77</v>
+      </c>
+      <c r="T70">
+        <f t="shared" ref="T70:T73" si="39">S70/$S$73*100</f>
+        <v>11.773700305810397</v>
+      </c>
+    </row>
+    <row r="71" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R71" s="9">
+        <v>21</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="38"/>
+        <v>84</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="39"/>
+        <v>12.844036697247708</v>
+      </c>
+    </row>
+    <row r="72" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R72" s="9">
+        <v>22</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="38"/>
+        <v>105</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="39"/>
+        <v>16.055045871559635</v>
+      </c>
+    </row>
+    <row r="73" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="S73">
+        <f t="shared" si="38"/>
+        <v>654</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="39"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B111591F-0AE6-4574-8CD7-FBB33EB75EF9}">
+  <dimension ref="A1:X73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>204</v>
+      </c>
+      <c r="D3">
+        <f>C3/469*100</f>
+        <v>43.49680170575693</v>
+      </c>
+      <c r="F3" s="4">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>145</v>
+      </c>
+      <c r="H3">
+        <f>G3/298*100</f>
+        <v>48.65771812080537</v>
+      </c>
+      <c r="J3" s="4">
+        <v>11</v>
+      </c>
+      <c r="K3">
+        <v>278</v>
+      </c>
+      <c r="L3">
+        <f>K3/630*100</f>
+        <v>44.126984126984127</v>
+      </c>
+      <c r="N3" s="9">
+        <v>11</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <f>O3/3*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="R3" s="4">
+        <v>11</v>
+      </c>
+      <c r="S3">
+        <v>28</v>
+      </c>
+      <c r="T3">
+        <f>S3/57*100</f>
+        <v>49.122807017543856</v>
+      </c>
+      <c r="V3" s="9">
+        <v>11</v>
+      </c>
+      <c r="W3">
+        <f>C3+G3+K3+O3+S3</f>
+        <v>657</v>
+      </c>
+      <c r="X3">
+        <f>W3/$W$7*100</f>
+        <v>45.092656142759097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>104</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D7" si="0">C4/469*100</f>
+        <v>22.174840085287848</v>
+      </c>
+      <c r="F4" s="4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>101</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H7" si="1">G4/298*100</f>
+        <v>33.892617449664428</v>
+      </c>
+      <c r="J4" s="4">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>200</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L7" si="2">K4/630*100</f>
+        <v>31.746031746031743</v>
+      </c>
+      <c r="N4" s="4">
+        <v>12</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P7" si="3">O4/3*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="R4" s="4">
+        <v>12</v>
+      </c>
+      <c r="S4">
+        <v>17</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T7" si="4">S4/57*100</f>
+        <v>29.82456140350877</v>
+      </c>
+      <c r="V4" s="9">
+        <v>12</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W7" si="5">C4+G4+K4+O4+S4</f>
+        <v>423</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X7" si="6">W4/$W$7*100</f>
+        <v>29.032258064516132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>145</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>30.916844349680172</v>
+      </c>
+      <c r="F5" s="4">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>49</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>16.44295302013423</v>
+      </c>
+      <c r="J5" s="4">
+        <v>21</v>
+      </c>
+      <c r="K5">
+        <v>135</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>21.428571428571427</v>
+      </c>
+      <c r="N5" s="4">
+        <v>21</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>21</v>
+      </c>
+      <c r="S5">
+        <v>12</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="4"/>
+        <v>21.052631578947366</v>
+      </c>
+      <c r="V5" s="9">
+        <v>21</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="5"/>
+        <v>341</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="6"/>
+        <v>23.404255319148938</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3.4115138592750531</v>
+      </c>
+      <c r="F6" s="4">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>1.006711409395973</v>
+      </c>
+      <c r="J6" s="4">
+        <v>22</v>
+      </c>
+      <c r="K6">
+        <v>17</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>2.6984126984126986</v>
+      </c>
+      <c r="N6" s="9">
+        <v>22</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>22</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <v>22</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="6"/>
+        <v>2.4708304735758406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C7" s="6">
+        <f>SUM(C3:C6)</f>
+        <v>469</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G7" s="6">
+        <f>SUM(G3:G6)</f>
+        <v>298</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K7" s="6">
+        <f>SUM(K3:K6)</f>
+        <v>630</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="O7" s="6">
+        <f>SUM(O3:O6)</f>
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="S7" s="6">
+        <f>SUM(S3:S6)</f>
+        <v>57</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="5"/>
+        <v>1457</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="9">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="F13" s="4">
+        <v>11</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f>G13/7*100</f>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="J13" s="4">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>244</v>
+      </c>
+      <c r="L13">
+        <f>K13/715*100</f>
+        <v>34.125874125874127</v>
+      </c>
+      <c r="N13" s="4">
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <v>116</v>
+      </c>
+      <c r="P13">
+        <f>O13/315*100</f>
+        <v>36.82539682539683</v>
+      </c>
+      <c r="V13" s="9">
+        <v>11</v>
+      </c>
+      <c r="W13">
+        <f>C13+G13+K13+O13</f>
+        <v>363</v>
+      </c>
+      <c r="X13">
+        <f>W13/$W$17*100</f>
+        <v>34.971098265895954</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="9">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H17" si="7">G14/7*100</f>
+        <v>57.142857142857139</v>
+      </c>
+      <c r="J14" s="4">
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <v>158</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:L17" si="8">K14/715*100</f>
+        <v>22.097902097902097</v>
+      </c>
+      <c r="N14" s="4">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>80</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:P17" si="9">O14/315*100</f>
+        <v>25.396825396825395</v>
+      </c>
+      <c r="V14" s="4">
+        <v>12</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ref="W14:W17" si="10">C14+G14+K14+O14</f>
+        <v>242</v>
+      </c>
+      <c r="X14">
+        <f t="shared" ref="X14:X17" si="11">W14/$W$17*100</f>
+        <v>23.314065510597302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>21</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="7"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="J15" s="4">
+        <v>21</v>
+      </c>
+      <c r="K15">
+        <v>289</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="8"/>
+        <v>40.41958041958042</v>
+      </c>
+      <c r="N15" s="4">
+        <v>21</v>
+      </c>
+      <c r="O15">
+        <v>112</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="9"/>
+        <v>35.555555555555557</v>
+      </c>
+      <c r="V15" s="9">
+        <v>21</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="10"/>
+        <v>402</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="11"/>
+        <v>38.728323699421964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="9">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>22</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>22</v>
+      </c>
+      <c r="K16">
+        <v>24</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="8"/>
+        <v>3.3566433566433567</v>
+      </c>
+      <c r="N16" s="4">
+        <v>22</v>
+      </c>
+      <c r="O16">
+        <v>7</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="9"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="V16" s="9">
+        <v>22</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="10"/>
+        <v>31</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="11"/>
+        <v>2.9865125240847785</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="K17" s="6">
+        <f>SUM(K13:K16)</f>
+        <v>715</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="O17" s="6">
+        <f>SUM(O13:O16)</f>
+        <v>315</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="10"/>
+        <v>1038</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>11</v>
+      </c>
+      <c r="G23" s="6">
+        <v>36</v>
+      </c>
+      <c r="H23">
+        <f>G23/99*100</f>
+        <v>36.363636363636367</v>
+      </c>
+      <c r="J23" s="4">
+        <v>11</v>
+      </c>
+      <c r="K23">
+        <v>332</v>
+      </c>
+      <c r="L23">
+        <f>K23/1002*100</f>
+        <v>33.133732534930139</v>
+      </c>
+      <c r="N23" s="4">
+        <v>11</v>
+      </c>
+      <c r="O23" s="6">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <f>O23/7*100</f>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="V23" s="9">
+        <v>11</v>
+      </c>
+      <c r="W23">
+        <f>C23+G23+K23+O23</f>
+        <v>371</v>
+      </c>
+      <c r="X23">
+        <f>W23/$W$27*100</f>
+        <v>33.453561767357982</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B24" s="9">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="F24" s="4">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>22</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H27" si="12">G24/99*100</f>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="J24" s="4">
+        <v>12</v>
+      </c>
+      <c r="K24">
+        <v>228</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24:L27" si="13">K24/1002*100</f>
+        <v>22.754491017964071</v>
+      </c>
+      <c r="N24" s="4">
+        <v>12</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24:P27" si="14">O24/7*100</f>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="V24" s="4">
+        <v>12</v>
+      </c>
+      <c r="W24">
+        <f t="shared" ref="W24:W27" si="15">C24+G24+K24+O24</f>
+        <v>254</v>
+      </c>
+      <c r="X24">
+        <f t="shared" ref="X24:X27" si="16">W24/$W$27*100</f>
+        <v>22.903516681695223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B25" s="9">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>21</v>
+      </c>
+      <c r="G25">
+        <v>38</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="12"/>
+        <v>38.383838383838381</v>
+      </c>
+      <c r="J25" s="4">
+        <v>21</v>
+      </c>
+      <c r="K25">
+        <v>406</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="13"/>
+        <v>40.5189620758483</v>
+      </c>
+      <c r="N25" s="4">
+        <v>21</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="14"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="V25" s="9">
+        <v>21</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="15"/>
+        <v>445</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="16"/>
+        <v>40.126239855725885</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B26" s="9">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>22</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="12"/>
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="J26" s="4">
+        <v>22</v>
+      </c>
+      <c r="K26">
+        <v>36</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="13"/>
+        <v>3.5928143712574849</v>
+      </c>
+      <c r="N26" s="4">
+        <v>22</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="9">
+        <v>22</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="15"/>
+        <v>39</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="16"/>
+        <v>3.5166816952209197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="G27" s="6">
+        <f>SUM(G23:G26)</f>
+        <v>99</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="K27" s="6">
+        <f>SUM(K23:K26)</f>
+        <v>1002</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="O27">
+        <v>7</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="15"/>
+        <v>1109</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B33" s="9">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>130</v>
+      </c>
+      <c r="H33">
+        <f>G33/456*100</f>
+        <v>28.508771929824562</v>
+      </c>
+      <c r="J33" s="9">
+        <v>11</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f>K33/3*100</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="4">
+        <v>11</v>
+      </c>
+      <c r="O33">
+        <v>6</v>
+      </c>
+      <c r="P33">
+        <f>O33/15*100</f>
+        <v>40</v>
+      </c>
+      <c r="V33" s="9">
+        <v>11</v>
+      </c>
+      <c r="W33">
+        <f>C33+G33+K33+O33</f>
+        <v>136</v>
+      </c>
+      <c r="X33">
+        <f>W33/$W$37*100</f>
+        <v>28.631578947368418</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>12</v>
+      </c>
+      <c r="G34">
+        <v>97</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:H37" si="17">G34/456*100</f>
+        <v>21.271929824561404</v>
+      </c>
+      <c r="J34" s="9">
+        <v>12</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ref="L34:L37" si="18">K34/3*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="N34" s="4">
+        <v>12</v>
+      </c>
+      <c r="O34">
+        <v>3</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ref="P34:P37" si="19">O34/15*100</f>
+        <v>20</v>
+      </c>
+      <c r="V34" s="4">
+        <v>12</v>
+      </c>
+      <c r="W34">
+        <f t="shared" ref="W34:W37" si="20">C34+G34+K34+O34</f>
+        <v>101</v>
+      </c>
+      <c r="X34">
+        <f t="shared" ref="X34:X37" si="21">W34/$W$37*100</f>
+        <v>21.263157894736842</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B35" s="9">
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="F35" s="4">
+        <v>21</v>
+      </c>
+      <c r="G35">
+        <v>208</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="17"/>
+        <v>45.614035087719294</v>
+      </c>
+      <c r="J35" s="4">
+        <v>21</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="18"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="N35" s="4">
+        <v>21</v>
+      </c>
+      <c r="O35">
+        <v>6</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="19"/>
+        <v>40</v>
+      </c>
+      <c r="V35" s="9">
+        <v>21</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="20"/>
+        <v>217</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="21"/>
+        <v>45.684210526315788</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B36" s="9">
+        <v>22</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>22</v>
+      </c>
+      <c r="G36">
+        <v>21</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="17"/>
+        <v>4.6052631578947363</v>
+      </c>
+      <c r="J36" s="4">
+        <v>22</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="4">
+        <v>22</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="9">
+        <v>22</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="20"/>
+        <v>21</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="21"/>
+        <v>4.4210526315789469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="G37" s="6">
+        <f>SUM(G33:G36)</f>
+        <v>456</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="O37" s="6">
+        <f>SUM(O33:O36)</f>
+        <v>15</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="20"/>
+        <v>475</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B42" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V42" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>62</v>
+      </c>
+      <c r="D43">
+        <f>C43/164*100</f>
+        <v>37.804878048780488</v>
+      </c>
+      <c r="F43" s="4">
+        <v>11</v>
+      </c>
+      <c r="G43" s="6">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <f>G43/13*100</f>
+        <v>23.076923076923077</v>
+      </c>
+      <c r="J43" s="9">
+        <v>11</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>50</v>
+      </c>
+      <c r="V43" s="9">
+        <v>11</v>
+      </c>
+      <c r="W43">
+        <f>C43+G43+K43</f>
+        <v>66</v>
+      </c>
+      <c r="X43">
+        <f>W43/$W$47*100</f>
+        <v>36.871508379888269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>44</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:D47" si="22">C44/164*100</f>
+        <v>26.829268292682929</v>
+      </c>
+      <c r="F44" s="4">
+        <v>12</v>
+      </c>
+      <c r="G44">
+        <v>8</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ref="H44:H47" si="23">G44/13*100</f>
+        <v>61.53846153846154</v>
+      </c>
+      <c r="J44" s="4">
+        <v>12</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>50</v>
+      </c>
+      <c r="V44" s="4">
+        <v>12</v>
+      </c>
+      <c r="W44">
+        <f t="shared" ref="W44:W47" si="24">C44+G44+K44</f>
+        <v>53</v>
+      </c>
+      <c r="X44">
+        <f t="shared" ref="X44:X47" si="25">W44/$W$47*100</f>
+        <v>29.608938547486037</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>21</v>
+      </c>
+      <c r="C45">
+        <v>52</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="22"/>
+        <v>31.707317073170731</v>
+      </c>
+      <c r="F45" s="4">
+        <v>21</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="23"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="J45" s="4">
+        <v>21</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="V45" s="9">
+        <v>21</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="24"/>
+        <v>53</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="25"/>
+        <v>29.608938547486037</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="22"/>
+        <v>3.6585365853658534</v>
+      </c>
+      <c r="F46" s="4">
+        <v>22</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="23"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="J46" s="9">
+        <v>22</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="V46" s="9">
+        <v>22</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="25"/>
+        <v>3.9106145251396649</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C47" s="6">
+        <f>SUM(C43:C46)</f>
+        <v>164</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="G47" s="6">
+        <f>SUM(G43:G46)</f>
+        <v>13</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="23"/>
+        <v>100</v>
+      </c>
+      <c r="K47" s="6">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>100</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="24"/>
+        <v>179</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B51" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R51" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V51" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X51" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B52" s="9">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <f>C3+C13+C23</f>
+        <v>205</v>
+      </c>
+      <c r="D52">
+        <f>C52/$C$56*100</f>
+        <v>43.524416135881104</v>
+      </c>
+      <c r="F52" s="9">
+        <v>11</v>
+      </c>
+      <c r="G52">
+        <v>145</v>
+      </c>
+      <c r="H52">
+        <v>48.65771812080537</v>
+      </c>
+      <c r="J52" s="9">
+        <v>11</v>
+      </c>
+      <c r="K52">
+        <f>K3+G13+G23+C33</f>
+        <v>316</v>
+      </c>
+      <c r="L52">
+        <f>K52/$K$56*100</f>
+        <v>42.876526458616013</v>
+      </c>
+      <c r="N52" s="9">
+        <v>11</v>
+      </c>
+      <c r="O52">
+        <f>O3+K13+K23+G33+C43</f>
+        <v>770</v>
+      </c>
+      <c r="P52">
+        <f>O52/$O$56*100</f>
+        <v>32.905982905982903</v>
+      </c>
+      <c r="R52" s="9">
+        <v>11</v>
+      </c>
+      <c r="S52">
+        <f>O13+O23+K33+G43</f>
+        <v>122</v>
+      </c>
+      <c r="T52">
+        <f>S52/$S$56*100</f>
+        <v>36.094674556213022</v>
+      </c>
+      <c r="V52" s="9">
+        <v>11</v>
+      </c>
+      <c r="W52">
+        <f>S3+O33+K43</f>
+        <v>35</v>
+      </c>
+      <c r="X52">
+        <f>W52/$W$56*100</f>
+        <v>47.297297297297298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B53" s="4">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:C56" si="26">C4+C14+C24</f>
+        <v>105</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:D56" si="27">C53/$C$56*100</f>
+        <v>22.29299363057325</v>
+      </c>
+      <c r="F53" s="4">
+        <v>12</v>
+      </c>
+      <c r="G53">
+        <v>101</v>
+      </c>
+      <c r="H53">
+        <v>33.892617449664428</v>
+      </c>
+      <c r="J53" s="4">
+        <v>12</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ref="K53:K56" si="28">K4+G14+G24+C34</f>
+        <v>226</v>
+      </c>
+      <c r="L53">
+        <f t="shared" ref="L53:L56" si="29">K53/$K$56*100</f>
+        <v>30.664857530529172</v>
+      </c>
+      <c r="N53" s="4">
+        <v>12</v>
+      </c>
+      <c r="O53">
+        <f t="shared" ref="O53:O56" si="30">O4+K14+K24+G34+C44</f>
+        <v>528</v>
+      </c>
+      <c r="P53">
+        <f t="shared" ref="P53:P56" si="31">O53/$O$56*100</f>
+        <v>22.564102564102566</v>
+      </c>
+      <c r="R53" s="4">
+        <v>12</v>
+      </c>
+      <c r="S53">
+        <f t="shared" ref="S53:S56" si="32">O14+O24+K34+G44</f>
+        <v>92</v>
+      </c>
+      <c r="T53">
+        <f t="shared" ref="T53:T56" si="33">S53/$S$56*100</f>
+        <v>27.218934911242602</v>
+      </c>
+      <c r="V53" s="4">
+        <v>12</v>
+      </c>
+      <c r="W53">
+        <f t="shared" ref="W53:W56" si="34">S4+O34+K44</f>
+        <v>21</v>
+      </c>
+      <c r="X53">
+        <f t="shared" ref="X53:X56" si="35">W53/$W$56*100</f>
+        <v>28.378378378378379</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B54" s="9">
+        <v>21</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="26"/>
+        <v>145</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="27"/>
+        <v>30.78556263269639</v>
+      </c>
+      <c r="F54" s="9">
+        <v>21</v>
+      </c>
+      <c r="G54">
+        <v>49</v>
+      </c>
+      <c r="H54">
+        <v>16.44295302013423</v>
+      </c>
+      <c r="J54" s="9">
+        <v>21</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="28"/>
+        <v>175</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="29"/>
+        <v>23.744911804613299</v>
+      </c>
+      <c r="N54" s="9">
+        <v>21</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="30"/>
+        <v>955</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="31"/>
+        <v>40.811965811965813</v>
+      </c>
+      <c r="R54" s="9">
+        <v>21</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="32"/>
+        <v>116</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="33"/>
+        <v>34.319526627218934</v>
+      </c>
+      <c r="V54" s="9">
+        <v>21</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="34"/>
+        <v>18</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="35"/>
+        <v>24.324324324324326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B55" s="9">
+        <v>22</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="27"/>
+        <v>3.397027600849257</v>
+      </c>
+      <c r="F55" s="9">
+        <v>22</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="H55">
+        <v>1.006711409395973</v>
+      </c>
+      <c r="J55" s="9">
+        <v>22</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="29"/>
+        <v>2.7137042062415198</v>
+      </c>
+      <c r="N55" s="9">
+        <v>22</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="30"/>
+        <v>87</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="31"/>
+        <v>3.7179487179487181</v>
+      </c>
+      <c r="R55" s="9">
+        <v>22</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="32"/>
+        <v>8</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="33"/>
+        <v>2.3668639053254439</v>
+      </c>
+      <c r="V55" s="9">
+        <v>22</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <f t="shared" si="26"/>
+        <v>471</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="G56">
+        <v>298</v>
+      </c>
+      <c r="H56">
+        <v>100</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="28"/>
+        <v>737</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="29"/>
+        <v>100</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="30"/>
+        <v>2340</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="31"/>
+        <v>100</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="32"/>
+        <v>338</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="33"/>
+        <v>100</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="34"/>
+        <v>74</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="35"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B60" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R60" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V60" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B61" s="9">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <f>C52+G52+K52+O52+S52+W52</f>
+        <v>1593</v>
+      </c>
+      <c r="D61">
+        <f>C61/$C$65*100</f>
+        <v>37.41193048379521</v>
+      </c>
+      <c r="F61" s="9">
+        <v>11</v>
+      </c>
+      <c r="G61">
+        <v>657</v>
+      </c>
+      <c r="H61">
+        <v>45.092656142759097</v>
+      </c>
+      <c r="J61" s="9">
+        <v>11</v>
+      </c>
+      <c r="K61">
+        <v>363</v>
+      </c>
+      <c r="L61">
+        <v>34.971098265895954</v>
+      </c>
+      <c r="N61" s="9">
+        <v>11</v>
+      </c>
+      <c r="O61">
+        <v>371</v>
+      </c>
+      <c r="P61">
+        <v>33.453561767357982</v>
+      </c>
+      <c r="R61" s="9">
+        <v>11</v>
+      </c>
+      <c r="S61">
+        <v>136</v>
+      </c>
+      <c r="T61">
+        <v>28.631578947368418</v>
+      </c>
+      <c r="V61" s="9">
+        <v>11</v>
+      </c>
+      <c r="W61">
+        <v>66</v>
+      </c>
+      <c r="X61">
+        <v>36.871508379888269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B62" s="4">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62:C65" si="36">C53+G53+K53+O53+S53+W53</f>
+        <v>1073</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62:D65" si="37">C62/$C$65*100</f>
+        <v>25.199624236730862</v>
+      </c>
+      <c r="F62" s="4">
+        <v>12</v>
+      </c>
+      <c r="G62">
+        <v>423</v>
+      </c>
+      <c r="H62">
+        <v>29.032258064516132</v>
+      </c>
+      <c r="J62" s="4">
+        <v>12</v>
+      </c>
+      <c r="K62">
+        <v>242</v>
+      </c>
+      <c r="L62">
+        <v>23.314065510597302</v>
+      </c>
+      <c r="N62" s="4">
+        <v>12</v>
+      </c>
+      <c r="O62">
+        <v>254</v>
+      </c>
+      <c r="P62">
+        <v>22.903516681695223</v>
+      </c>
+      <c r="R62" s="4">
+        <v>12</v>
+      </c>
+      <c r="S62">
+        <v>101</v>
+      </c>
+      <c r="T62">
+        <v>21.263157894736842</v>
+      </c>
+      <c r="V62" s="4">
+        <v>12</v>
+      </c>
+      <c r="W62">
+        <v>53</v>
+      </c>
+      <c r="X62">
+        <v>29.608938547486037</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B63" s="9">
+        <v>21</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="36"/>
+        <v>1458</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="37"/>
+        <v>34.241427900422735</v>
+      </c>
+      <c r="F63" s="9">
+        <v>21</v>
+      </c>
+      <c r="G63">
+        <v>341</v>
+      </c>
+      <c r="H63">
+        <v>23.404255319148938</v>
+      </c>
+      <c r="J63" s="9">
+        <v>21</v>
+      </c>
+      <c r="K63">
+        <v>402</v>
+      </c>
+      <c r="L63">
+        <v>38.728323699421964</v>
+      </c>
+      <c r="N63" s="9">
+        <v>21</v>
+      </c>
+      <c r="O63">
+        <v>445</v>
+      </c>
+      <c r="P63">
+        <v>40.126239855725885</v>
+      </c>
+      <c r="R63" s="9">
+        <v>21</v>
+      </c>
+      <c r="S63">
+        <v>217</v>
+      </c>
+      <c r="T63">
+        <v>45.684210526315788</v>
+      </c>
+      <c r="V63" s="9">
+        <v>21</v>
+      </c>
+      <c r="W63">
+        <v>53</v>
+      </c>
+      <c r="X63">
+        <v>29.608938547486037</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B64" s="9">
+        <v>22</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="36"/>
+        <v>134</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="37"/>
+        <v>3.1470173790511979</v>
+      </c>
+      <c r="F64" s="9">
+        <v>22</v>
+      </c>
+      <c r="G64">
+        <v>36</v>
+      </c>
+      <c r="H64">
+        <v>2.4708304735758406</v>
+      </c>
+      <c r="J64" s="9">
+        <v>22</v>
+      </c>
+      <c r="K64">
+        <v>31</v>
+      </c>
+      <c r="L64">
+        <v>2.9865125240847785</v>
+      </c>
+      <c r="N64" s="9">
+        <v>22</v>
+      </c>
+      <c r="O64">
+        <v>39</v>
+      </c>
+      <c r="P64">
+        <v>3.5166816952209197</v>
+      </c>
+      <c r="R64" s="9">
+        <v>22</v>
+      </c>
+      <c r="S64">
+        <v>21</v>
+      </c>
+      <c r="T64">
+        <v>4.4210526315789469</v>
+      </c>
+      <c r="V64" s="9">
+        <v>22</v>
+      </c>
+      <c r="W64">
+        <v>7</v>
+      </c>
+      <c r="X64">
+        <v>3.9106145251396649</v>
+      </c>
+    </row>
+    <row r="65" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <f t="shared" si="36"/>
+        <v>4258</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="37"/>
+        <v>100</v>
+      </c>
+      <c r="G65">
+        <v>1457</v>
+      </c>
+      <c r="H65">
+        <v>100</v>
+      </c>
+      <c r="K65">
+        <v>1038</v>
+      </c>
+      <c r="L65">
+        <v>100</v>
+      </c>
+      <c r="O65">
+        <v>1109</v>
+      </c>
+      <c r="P65">
+        <v>100</v>
+      </c>
+      <c r="S65">
+        <v>475</v>
+      </c>
+      <c r="T65">
+        <v>100</v>
+      </c>
+      <c r="W65">
+        <v>179</v>
+      </c>
+      <c r="X65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R68" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R69" s="9">
+        <v>11</v>
+      </c>
+      <c r="S69">
+        <f>S61+W61</f>
+        <v>202</v>
+      </c>
+      <c r="T69">
+        <f>S69/$S$73*100</f>
+        <v>30.886850152905197</v>
+      </c>
+    </row>
+    <row r="70" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R70" s="4">
+        <v>12</v>
+      </c>
+      <c r="S70">
+        <f t="shared" ref="S70:S73" si="38">S62+W62</f>
+        <v>154</v>
+      </c>
+      <c r="T70">
+        <f t="shared" ref="T70:T73" si="39">S70/$S$73*100</f>
+        <v>23.547400611620795</v>
+      </c>
+    </row>
+    <row r="71" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R71" s="9">
+        <v>21</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="38"/>
+        <v>270</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="39"/>
+        <v>41.284403669724774</v>
+      </c>
+    </row>
+    <row r="72" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R72" s="9">
+        <v>22</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="38"/>
+        <v>28</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="39"/>
+        <v>4.281345565749235</v>
+      </c>
+    </row>
+    <row r="73" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="S73">
+        <f t="shared" si="38"/>
+        <v>654</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="39"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_CLUSTER/groups_time_area/Frost/combined/1_groups_are_combined.xlsx
+++ b/_CLUSTER/groups_time_area/Frost/combined/1_groups_are_combined.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_CLUSTER\groups_time_area\Frost\combined\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46965DD4-0270-4C5E-9D00-776220404A55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C20BB2-C8D5-4789-8CBC-4DFF976D846D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{E7C6C3D5-4891-4F0C-9E0D-6B1669F09823}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E7C6C3D5-4891-4F0C-9E0D-6B1669F09823}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
     <sheet name="Fe_Mali_Sio2both" sheetId="2" r:id="rId2"/>
     <sheet name="Fe_Mali_SiO2M" sheetId="3" r:id="rId3"/>
     <sheet name="Fe_MALi" sheetId="4" r:id="rId4"/>
+    <sheet name="Birch" sheetId="5" r:id="rId5"/>
+    <sheet name="K_means" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="48">
   <si>
     <t>Area1</t>
   </si>
@@ -4534,8 +4536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C7598B-E580-4E87-88D4-38F99081630D}">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A43" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9155,8 +9157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B111591F-0AE6-4574-8CD7-FBB33EB75EF9}">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11456,4 +11458,4617 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B79CFC-7E08-4E03-906D-C6141DE6F6A8}">
+  <dimension ref="A1:X73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>166</v>
+      </c>
+      <c r="D3">
+        <f>C3/469*100</f>
+        <v>35.394456289978677</v>
+      </c>
+      <c r="F3" s="4">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>53</v>
+      </c>
+      <c r="H3">
+        <f>G3/298*100</f>
+        <v>17.785234899328859</v>
+      </c>
+      <c r="J3" s="4">
+        <v>11</v>
+      </c>
+      <c r="K3">
+        <v>152</v>
+      </c>
+      <c r="L3">
+        <f>K3/630*100</f>
+        <v>24.126984126984127</v>
+      </c>
+      <c r="N3" s="9">
+        <v>11</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>O3/3*100</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <v>11</v>
+      </c>
+      <c r="S3">
+        <v>14</v>
+      </c>
+      <c r="T3">
+        <f>S3/57*100</f>
+        <v>24.561403508771928</v>
+      </c>
+      <c r="V3" s="9">
+        <v>11</v>
+      </c>
+      <c r="W3">
+        <f>C3+G3+K3+O3+S3</f>
+        <v>385</v>
+      </c>
+      <c r="X3">
+        <f>W3/$W$7*100</f>
+        <v>26.424159231297185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D7" si="0">C4/469*100</f>
+        <v>2.1321961620469083</v>
+      </c>
+      <c r="F4" s="4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H7" si="1">G4/298*100</f>
+        <v>0.67114093959731547</v>
+      </c>
+      <c r="J4" s="4">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>14</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L7" si="2">K4/630*100</f>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="N4" s="4">
+        <v>12</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P7" si="3">O4/3*100</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>12</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T7" si="4">S4/57*100</f>
+        <v>1.7543859649122806</v>
+      </c>
+      <c r="V4" s="9">
+        <v>12</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W7" si="5">C4+G4+K4+O4+S4</f>
+        <v>27</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X7" si="6">W4/$W$7*100</f>
+        <v>1.8531228551818806</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>247</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>52.66524520255863</v>
+      </c>
+      <c r="F5" s="4">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>204</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>68.456375838926178</v>
+      </c>
+      <c r="J5" s="4">
+        <v>21</v>
+      </c>
+      <c r="K5">
+        <v>369</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>58.571428571428577</v>
+      </c>
+      <c r="N5" s="4">
+        <v>21</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="R5" s="4">
+        <v>21</v>
+      </c>
+      <c r="S5">
+        <v>38</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="4"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="V5" s="9">
+        <v>21</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="5"/>
+        <v>861</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="6"/>
+        <v>59.094028826355526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>9.8081023454157776</v>
+      </c>
+      <c r="F6" s="4">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>39</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>13.087248322147651</v>
+      </c>
+      <c r="J6" s="4">
+        <v>22</v>
+      </c>
+      <c r="K6">
+        <v>95</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>15.079365079365079</v>
+      </c>
+      <c r="N6" s="9">
+        <v>22</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>22</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>7.0175438596491224</v>
+      </c>
+      <c r="V6" s="9">
+        <v>22</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="5"/>
+        <v>184</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="6"/>
+        <v>12.628689087165409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C7" s="6">
+        <f>SUM(C3:C6)</f>
+        <v>469</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G7" s="6">
+        <f>SUM(G3:G6)</f>
+        <v>298</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K7" s="6">
+        <f>SUM(K3:K6)</f>
+        <v>630</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="O7" s="6">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="S7" s="6">
+        <f>SUM(S3:S6)</f>
+        <v>57</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="5"/>
+        <v>1457</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="9">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f>G13/7*100</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="J13" s="4">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>303</v>
+      </c>
+      <c r="L13">
+        <f>K13/715*100</f>
+        <v>42.377622377622373</v>
+      </c>
+      <c r="N13" s="4">
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <v>120</v>
+      </c>
+      <c r="P13">
+        <f>O13/315*100</f>
+        <v>38.095238095238095</v>
+      </c>
+      <c r="V13" s="9">
+        <v>11</v>
+      </c>
+      <c r="W13">
+        <f>C13+G13+K13+O13</f>
+        <v>424</v>
+      </c>
+      <c r="X13">
+        <f>W13/$W$17*100</f>
+        <v>40.847784200385355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="9">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H17" si="7">G14/7*100</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:L17" si="8">K14/715*100</f>
+        <v>1.3986013986013985</v>
+      </c>
+      <c r="N14" s="4">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:P17" si="9">O14/315*100</f>
+        <v>1.5873015873015872</v>
+      </c>
+      <c r="V14" s="4">
+        <v>12</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ref="W14:W17" si="10">C14+G14+K14+O14</f>
+        <v>15</v>
+      </c>
+      <c r="X14">
+        <f t="shared" ref="X14:X17" si="11">W14/$W$17*100</f>
+        <v>1.4450867052023122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="F15" s="4">
+        <v>21</v>
+      </c>
+      <c r="G15" s="6">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="7"/>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="J15" s="4">
+        <v>21</v>
+      </c>
+      <c r="K15">
+        <v>342</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="8"/>
+        <v>47.832167832167833</v>
+      </c>
+      <c r="N15" s="4">
+        <v>21</v>
+      </c>
+      <c r="O15">
+        <v>160</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="9"/>
+        <v>50.793650793650791</v>
+      </c>
+      <c r="V15" s="9">
+        <v>21</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="10"/>
+        <v>508</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="11"/>
+        <v>48.940269749518308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="9">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>22</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="7"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="J16" s="4">
+        <v>22</v>
+      </c>
+      <c r="K16">
+        <v>60</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="8"/>
+        <v>8.3916083916083917</v>
+      </c>
+      <c r="N16" s="4">
+        <v>22</v>
+      </c>
+      <c r="O16">
+        <v>30</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="9"/>
+        <v>9.5238095238095237</v>
+      </c>
+      <c r="V16" s="9">
+        <v>22</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="10"/>
+        <v>91</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="11"/>
+        <v>8.7668593448940264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="K17" s="6">
+        <f>SUM(K13:K16)</f>
+        <v>715</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="O17" s="6">
+        <f>SUM(O13:O16)</f>
+        <v>315</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="10"/>
+        <v>1038</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>40</v>
+      </c>
+      <c r="H23">
+        <f>G23/99*100</f>
+        <v>40.404040404040401</v>
+      </c>
+      <c r="J23" s="4">
+        <v>11</v>
+      </c>
+      <c r="K23">
+        <v>429</v>
+      </c>
+      <c r="L23">
+        <f>K23/1002*100</f>
+        <v>42.814371257485028</v>
+      </c>
+      <c r="N23" s="4">
+        <v>11</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <f>O23/7*100</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="V23" s="9">
+        <v>11</v>
+      </c>
+      <c r="W23">
+        <f>C23+G23+K23+O23</f>
+        <v>470</v>
+      </c>
+      <c r="X23">
+        <f>W23/$W$27*100</f>
+        <v>42.380522993688011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B24" s="9">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H27" si="12">G24/99*100</f>
+        <v>2.0202020202020203</v>
+      </c>
+      <c r="J24" s="4">
+        <v>12</v>
+      </c>
+      <c r="K24">
+        <v>29</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24:L27" si="13">K24/1002*100</f>
+        <v>2.8942115768463075</v>
+      </c>
+      <c r="N24" s="4">
+        <v>12</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24:P27" si="14">O24/7*100</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="4">
+        <v>12</v>
+      </c>
+      <c r="W24">
+        <f t="shared" ref="W24:W27" si="15">C24+G24+K24+O24</f>
+        <v>31</v>
+      </c>
+      <c r="X24">
+        <f t="shared" ref="X24:X27" si="16">W24/$W$27*100</f>
+        <v>2.7953110910730388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B25" s="9">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="F25" s="4">
+        <v>21</v>
+      </c>
+      <c r="G25" s="6">
+        <v>44</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="12"/>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="J25" s="4">
+        <v>21</v>
+      </c>
+      <c r="K25">
+        <v>442</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="13"/>
+        <v>44.11177644710579</v>
+      </c>
+      <c r="N25" s="4">
+        <v>21</v>
+      </c>
+      <c r="O25" s="6">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="14"/>
+        <v>57.142857142857139</v>
+      </c>
+      <c r="V25" s="9">
+        <v>21</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="15"/>
+        <v>491</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="16"/>
+        <v>44.274120829576198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B26" s="9">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>22</v>
+      </c>
+      <c r="G26">
+        <v>13</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="12"/>
+        <v>13.131313131313133</v>
+      </c>
+      <c r="J26" s="4">
+        <v>22</v>
+      </c>
+      <c r="K26">
+        <v>102</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="13"/>
+        <v>10.179640718562874</v>
+      </c>
+      <c r="N26" s="4">
+        <v>22</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="14"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="V26" s="9">
+        <v>22</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="15"/>
+        <v>117</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="16"/>
+        <v>10.550045085662759</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="G27" s="6">
+        <f>SUM(G23:G26)</f>
+        <v>99</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="K27" s="6">
+        <f>SUM(K23:K26)</f>
+        <v>1002</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="O27">
+        <v>7</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="15"/>
+        <v>1109</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B33" s="9">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="F33" s="4">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>227</v>
+      </c>
+      <c r="H33">
+        <f>G33/446*100</f>
+        <v>50.89686098654709</v>
+      </c>
+      <c r="J33" s="9">
+        <v>11</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <f>K33/3*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="N33" s="4">
+        <v>11</v>
+      </c>
+      <c r="O33">
+        <v>6</v>
+      </c>
+      <c r="P33">
+        <f>O33/15*100</f>
+        <v>40</v>
+      </c>
+      <c r="V33" s="9">
+        <v>11</v>
+      </c>
+      <c r="W33">
+        <f>C33+G33+K33+O33</f>
+        <v>236</v>
+      </c>
+      <c r="X33">
+        <f>W33/$W$37*100</f>
+        <v>50.752688172043015</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>12</v>
+      </c>
+      <c r="G34">
+        <v>11</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:H37" si="17">G34/446*100</f>
+        <v>2.4663677130044843</v>
+      </c>
+      <c r="J34" s="4">
+        <v>12</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ref="L34:L37" si="18">K34/3*100</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
+        <v>12</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ref="P34:P37" si="19">O34/15*100</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="4">
+        <v>12</v>
+      </c>
+      <c r="W34">
+        <f t="shared" ref="W34:W37" si="20">C34+G34+K34+O34</f>
+        <v>11</v>
+      </c>
+      <c r="X34">
+        <f t="shared" ref="X34:X37" si="21">W34/$W$37*100</f>
+        <v>2.3655913978494625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B35" s="9">
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>21</v>
+      </c>
+      <c r="G35">
+        <v>169</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="17"/>
+        <v>37.892376681614351</v>
+      </c>
+      <c r="J35" s="9">
+        <v>21</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="18"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="N35" s="4">
+        <v>21</v>
+      </c>
+      <c r="O35">
+        <v>8</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="19"/>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="V35" s="9">
+        <v>21</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="20"/>
+        <v>178</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="21"/>
+        <v>38.27956989247312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B36" s="9">
+        <v>22</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>22</v>
+      </c>
+      <c r="G36">
+        <v>39</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="17"/>
+        <v>8.7443946188340806</v>
+      </c>
+      <c r="J36" s="4">
+        <v>22</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="4">
+        <v>22</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="19"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="V36" s="9">
+        <v>22</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="20"/>
+        <v>40</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="21"/>
+        <v>8.6021505376344098</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="G37" s="6">
+        <f>SUM(G33:G36)</f>
+        <v>446</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="O37">
+        <v>15</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="20"/>
+        <v>465</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B42" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V42" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>55</v>
+      </c>
+      <c r="D43">
+        <f>C43/164*100</f>
+        <v>33.536585365853661</v>
+      </c>
+      <c r="F43" s="4">
+        <v>11</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <f>G43/13*100</f>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="J43" s="9">
+        <v>11</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="V43" s="9">
+        <v>11</v>
+      </c>
+      <c r="W43">
+        <f>C43+G43+K43</f>
+        <v>56</v>
+      </c>
+      <c r="X43">
+        <f>W43/$W$47*100</f>
+        <v>31.284916201117319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:D47" si="22">C44/164*100</f>
+        <v>3.0487804878048781</v>
+      </c>
+      <c r="F44" s="4">
+        <v>12</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ref="H44:H47" si="23">G44/13*100</f>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="J44" s="4">
+        <v>12</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="V44" s="4">
+        <v>12</v>
+      </c>
+      <c r="W44">
+        <f t="shared" ref="W44:W47" si="24">C44+G44+K44</f>
+        <v>6</v>
+      </c>
+      <c r="X44">
+        <f t="shared" ref="X44:X47" si="25">W44/$W$47*100</f>
+        <v>3.3519553072625698</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>21</v>
+      </c>
+      <c r="C45">
+        <v>85</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="22"/>
+        <v>51.829268292682926</v>
+      </c>
+      <c r="F45" s="4">
+        <v>21</v>
+      </c>
+      <c r="G45" s="6">
+        <v>7</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="23"/>
+        <v>53.846153846153847</v>
+      </c>
+      <c r="J45" s="4">
+        <v>21</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>100</v>
+      </c>
+      <c r="V45" s="9">
+        <v>21</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="24"/>
+        <v>94</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="25"/>
+        <v>52.513966480446925</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <v>19</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="22"/>
+        <v>11.585365853658537</v>
+      </c>
+      <c r="F46" s="4">
+        <v>22</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="23"/>
+        <v>30.76923076923077</v>
+      </c>
+      <c r="J46" s="9">
+        <v>22</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="V46" s="9">
+        <v>22</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="24"/>
+        <v>23</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="25"/>
+        <v>12.849162011173185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C47" s="6">
+        <f>SUM(C43:C46)</f>
+        <v>164</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="G47" s="6">
+        <f>SUM(G43:G46)</f>
+        <v>13</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="23"/>
+        <v>100</v>
+      </c>
+      <c r="K47" s="6">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>100</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="24"/>
+        <v>179</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B51" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R51" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V51" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X51" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B52" s="9">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <f>C3+C13+C23</f>
+        <v>166</v>
+      </c>
+      <c r="D52">
+        <f>C52/$C$56*100</f>
+        <v>35.244161358811041</v>
+      </c>
+      <c r="F52" s="9">
+        <v>11</v>
+      </c>
+      <c r="G52">
+        <v>53</v>
+      </c>
+      <c r="H52">
+        <v>17.785234899328859</v>
+      </c>
+      <c r="J52" s="9">
+        <v>11</v>
+      </c>
+      <c r="K52">
+        <f>K3+G13+G23+C33</f>
+        <v>194</v>
+      </c>
+      <c r="L52">
+        <f>K52/$K$56*100</f>
+        <v>26.322930800542743</v>
+      </c>
+      <c r="N52" s="9">
+        <v>11</v>
+      </c>
+      <c r="O52">
+        <f>O3+K13+K23+G33+C43</f>
+        <v>1014</v>
+      </c>
+      <c r="P52">
+        <f>O52/$O$56*100</f>
+        <v>43.519313304721031</v>
+      </c>
+      <c r="R52" s="9">
+        <v>11</v>
+      </c>
+      <c r="S52">
+        <f>O13+O23+K33+G43</f>
+        <v>124</v>
+      </c>
+      <c r="T52">
+        <f>S52/$S$56*100</f>
+        <v>36.68639053254438</v>
+      </c>
+      <c r="V52" s="9">
+        <v>11</v>
+      </c>
+      <c r="W52">
+        <f>S3+O33+K43</f>
+        <v>20</v>
+      </c>
+      <c r="X52">
+        <f>W52/$W$56*100</f>
+        <v>27.027027027027028</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B53" s="4">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:C56" si="26">C4+C14+C24</f>
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:D56" si="27">C53/$C$56*100</f>
+        <v>2.1231422505307855</v>
+      </c>
+      <c r="F53" s="4">
+        <v>12</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>0.67114093959731547</v>
+      </c>
+      <c r="J53" s="4">
+        <v>12</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ref="K53:K56" si="28">K4+G14+G24+C34</f>
+        <v>16</v>
+      </c>
+      <c r="L53">
+        <f t="shared" ref="L53:L56" si="29">K53/$K$56*100</f>
+        <v>2.1709633649932156</v>
+      </c>
+      <c r="N53" s="4">
+        <v>12</v>
+      </c>
+      <c r="O53">
+        <f t="shared" ref="O53:O56" si="30">O4+K14+K24+G34+C44</f>
+        <v>55</v>
+      </c>
+      <c r="P53">
+        <f t="shared" ref="P53:P56" si="31">O53/$O$56*100</f>
+        <v>2.3605150214592276</v>
+      </c>
+      <c r="R53" s="4">
+        <v>12</v>
+      </c>
+      <c r="S53">
+        <f t="shared" ref="S53:S56" si="32">O14+O24+K34+G44</f>
+        <v>6</v>
+      </c>
+      <c r="T53">
+        <f t="shared" ref="T53:T56" si="33">S53/$S$56*100</f>
+        <v>1.7751479289940828</v>
+      </c>
+      <c r="V53" s="4">
+        <v>12</v>
+      </c>
+      <c r="W53">
+        <f t="shared" ref="W53:W56" si="34">S4+O34+K44</f>
+        <v>1</v>
+      </c>
+      <c r="X53">
+        <f t="shared" ref="X53:X56" si="35">W53/$W$56*100</f>
+        <v>1.3513513513513513</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B54" s="9">
+        <v>21</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="26"/>
+        <v>249</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="27"/>
+        <v>52.866242038216562</v>
+      </c>
+      <c r="F54" s="9">
+        <v>21</v>
+      </c>
+      <c r="G54">
+        <v>204</v>
+      </c>
+      <c r="H54">
+        <v>68.456375838926178</v>
+      </c>
+      <c r="J54" s="9">
+        <v>21</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="28"/>
+        <v>418</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="29"/>
+        <v>56.71641791044776</v>
+      </c>
+      <c r="N54" s="9">
+        <v>21</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="30"/>
+        <v>1041</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="31"/>
+        <v>44.678111587982833</v>
+      </c>
+      <c r="R54" s="9">
+        <v>21</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="32"/>
+        <v>172</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="33"/>
+        <v>50.887573964497044</v>
+      </c>
+      <c r="V54" s="9">
+        <v>21</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="34"/>
+        <v>48</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="35"/>
+        <v>64.86486486486487</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B55" s="9">
+        <v>22</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="26"/>
+        <v>46</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="27"/>
+        <v>9.766454352441615</v>
+      </c>
+      <c r="F55" s="9">
+        <v>22</v>
+      </c>
+      <c r="G55">
+        <v>39</v>
+      </c>
+      <c r="H55">
+        <v>13.087248322147651</v>
+      </c>
+      <c r="J55" s="9">
+        <v>22</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="28"/>
+        <v>109</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="29"/>
+        <v>14.789687924016281</v>
+      </c>
+      <c r="N55" s="9">
+        <v>22</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="30"/>
+        <v>220</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="31"/>
+        <v>9.4420600858369106</v>
+      </c>
+      <c r="R55" s="9">
+        <v>22</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="32"/>
+        <v>36</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="33"/>
+        <v>10.650887573964498</v>
+      </c>
+      <c r="V55" s="9">
+        <v>22</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="35"/>
+        <v>6.756756756756757</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <f t="shared" si="26"/>
+        <v>471</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="G56">
+        <v>298</v>
+      </c>
+      <c r="H56">
+        <v>100</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="28"/>
+        <v>737</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="29"/>
+        <v>100</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="30"/>
+        <v>2330</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="31"/>
+        <v>100</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="32"/>
+        <v>338</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="33"/>
+        <v>100</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="34"/>
+        <v>74</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="35"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B60" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R60" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V60" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B61" s="9">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <f>C52+G52+K52+O52+S52+W52</f>
+        <v>1571</v>
+      </c>
+      <c r="D61">
+        <f>C61/$C$65*100</f>
+        <v>36.982109227871938</v>
+      </c>
+      <c r="F61" s="9">
+        <v>11</v>
+      </c>
+      <c r="G61">
+        <v>385</v>
+      </c>
+      <c r="H61">
+        <v>26.424159231297185</v>
+      </c>
+      <c r="J61" s="9">
+        <v>11</v>
+      </c>
+      <c r="K61">
+        <v>424</v>
+      </c>
+      <c r="L61">
+        <v>40.847784200385355</v>
+      </c>
+      <c r="N61" s="9">
+        <v>11</v>
+      </c>
+      <c r="O61">
+        <v>470</v>
+      </c>
+      <c r="P61">
+        <v>42.380522993688011</v>
+      </c>
+      <c r="R61" s="9">
+        <v>11</v>
+      </c>
+      <c r="S61">
+        <v>236</v>
+      </c>
+      <c r="T61">
+        <v>50.752688172043015</v>
+      </c>
+      <c r="V61" s="9">
+        <v>11</v>
+      </c>
+      <c r="W61">
+        <v>56</v>
+      </c>
+      <c r="X61">
+        <v>31.284916201117319</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B62" s="4">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62:C65" si="36">C53+G53+K53+O53+S53+W53</f>
+        <v>90</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62:D65" si="37">C62/$C$65*100</f>
+        <v>2.1186440677966099</v>
+      </c>
+      <c r="F62" s="4">
+        <v>12</v>
+      </c>
+      <c r="G62">
+        <v>27</v>
+      </c>
+      <c r="H62">
+        <v>1.8531228551818806</v>
+      </c>
+      <c r="J62" s="4">
+        <v>12</v>
+      </c>
+      <c r="K62">
+        <v>15</v>
+      </c>
+      <c r="L62">
+        <v>1.4450867052023122</v>
+      </c>
+      <c r="N62" s="4">
+        <v>12</v>
+      </c>
+      <c r="O62">
+        <v>31</v>
+      </c>
+      <c r="P62">
+        <v>2.7953110910730388</v>
+      </c>
+      <c r="R62" s="4">
+        <v>12</v>
+      </c>
+      <c r="S62">
+        <v>11</v>
+      </c>
+      <c r="T62">
+        <v>2.3655913978494625</v>
+      </c>
+      <c r="V62" s="4">
+        <v>12</v>
+      </c>
+      <c r="W62">
+        <v>6</v>
+      </c>
+      <c r="X62">
+        <v>3.3519553072625698</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B63" s="9">
+        <v>21</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="36"/>
+        <v>2132</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="37"/>
+        <v>50.188323917137481</v>
+      </c>
+      <c r="F63" s="9">
+        <v>21</v>
+      </c>
+      <c r="G63">
+        <v>861</v>
+      </c>
+      <c r="H63">
+        <v>59.094028826355526</v>
+      </c>
+      <c r="J63" s="9">
+        <v>21</v>
+      </c>
+      <c r="K63">
+        <v>508</v>
+      </c>
+      <c r="L63">
+        <v>48.940269749518308</v>
+      </c>
+      <c r="N63" s="9">
+        <v>21</v>
+      </c>
+      <c r="O63">
+        <v>491</v>
+      </c>
+      <c r="P63">
+        <v>44.274120829576198</v>
+      </c>
+      <c r="R63" s="9">
+        <v>21</v>
+      </c>
+      <c r="S63">
+        <v>178</v>
+      </c>
+      <c r="T63">
+        <v>38.27956989247312</v>
+      </c>
+      <c r="V63" s="9">
+        <v>21</v>
+      </c>
+      <c r="W63">
+        <v>94</v>
+      </c>
+      <c r="X63">
+        <v>52.513966480446925</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B64" s="9">
+        <v>22</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="36"/>
+        <v>455</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="37"/>
+        <v>10.710922787193972</v>
+      </c>
+      <c r="F64" s="9">
+        <v>22</v>
+      </c>
+      <c r="G64">
+        <v>184</v>
+      </c>
+      <c r="H64">
+        <v>12.628689087165409</v>
+      </c>
+      <c r="J64" s="9">
+        <v>22</v>
+      </c>
+      <c r="K64">
+        <v>91</v>
+      </c>
+      <c r="L64">
+        <v>8.7668593448940264</v>
+      </c>
+      <c r="N64" s="9">
+        <v>22</v>
+      </c>
+      <c r="O64">
+        <v>117</v>
+      </c>
+      <c r="P64">
+        <v>10.550045085662759</v>
+      </c>
+      <c r="R64" s="9">
+        <v>22</v>
+      </c>
+      <c r="S64">
+        <v>40</v>
+      </c>
+      <c r="T64">
+        <v>8.6021505376344098</v>
+      </c>
+      <c r="V64" s="9">
+        <v>22</v>
+      </c>
+      <c r="W64">
+        <v>23</v>
+      </c>
+      <c r="X64">
+        <v>12.849162011173185</v>
+      </c>
+    </row>
+    <row r="65" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <f t="shared" si="36"/>
+        <v>4248</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="37"/>
+        <v>100</v>
+      </c>
+      <c r="G65">
+        <v>1457</v>
+      </c>
+      <c r="H65">
+        <v>100</v>
+      </c>
+      <c r="K65">
+        <v>1038</v>
+      </c>
+      <c r="L65">
+        <v>100</v>
+      </c>
+      <c r="O65">
+        <v>1109</v>
+      </c>
+      <c r="P65">
+        <v>100</v>
+      </c>
+      <c r="S65">
+        <v>465</v>
+      </c>
+      <c r="T65">
+        <v>100</v>
+      </c>
+      <c r="W65">
+        <v>179</v>
+      </c>
+      <c r="X65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R68" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R69" s="9">
+        <v>11</v>
+      </c>
+      <c r="S69">
+        <f>S61+W61</f>
+        <v>292</v>
+      </c>
+      <c r="T69">
+        <f>S69/$S$73*100</f>
+        <v>45.341614906832298</v>
+      </c>
+    </row>
+    <row r="70" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R70" s="4">
+        <v>12</v>
+      </c>
+      <c r="S70">
+        <f t="shared" ref="S70:S73" si="38">S62+W62</f>
+        <v>17</v>
+      </c>
+      <c r="T70">
+        <f t="shared" ref="T70:T73" si="39">S70/$S$73*100</f>
+        <v>2.639751552795031</v>
+      </c>
+    </row>
+    <row r="71" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R71" s="9">
+        <v>21</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="38"/>
+        <v>272</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="39"/>
+        <v>42.236024844720497</v>
+      </c>
+    </row>
+    <row r="72" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R72" s="9">
+        <v>22</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="38"/>
+        <v>63</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="39"/>
+        <v>9.7826086956521738</v>
+      </c>
+    </row>
+    <row r="73" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="S73">
+        <f t="shared" si="38"/>
+        <v>644</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="39"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA583AB5-610A-41CA-B4D8-CC2A27608709}">
+  <dimension ref="A1:X73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>182</v>
+      </c>
+      <c r="D3">
+        <f>C3/469*100</f>
+        <v>38.805970149253731</v>
+      </c>
+      <c r="F3" s="4">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>69</v>
+      </c>
+      <c r="H3">
+        <f>G3/298*100</f>
+        <v>23.154362416107382</v>
+      </c>
+      <c r="J3" s="4">
+        <v>11</v>
+      </c>
+      <c r="K3">
+        <v>175</v>
+      </c>
+      <c r="L3">
+        <f>K3/630*100</f>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="N3" s="9">
+        <v>11</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>O3/3*100</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <v>11</v>
+      </c>
+      <c r="S3">
+        <v>17</v>
+      </c>
+      <c r="T3">
+        <f>S3/57*100</f>
+        <v>29.82456140350877</v>
+      </c>
+      <c r="V3" s="9">
+        <v>11</v>
+      </c>
+      <c r="W3">
+        <f>C3+G3+K3+O3+S3</f>
+        <v>443</v>
+      </c>
+      <c r="X3">
+        <f>W3/$W$7*100</f>
+        <v>30.404941660947149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>56</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D7" si="0">C4/469*100</f>
+        <v>11.940298507462686</v>
+      </c>
+      <c r="F4" s="4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H7" si="1">G4/298*100</f>
+        <v>4.6979865771812079</v>
+      </c>
+      <c r="J4" s="4">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>58</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L7" si="2">K4/630*100</f>
+        <v>9.2063492063492074</v>
+      </c>
+      <c r="N4" s="4">
+        <v>12</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P7" si="3">O4/3*100</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>12</v>
+      </c>
+      <c r="S4">
+        <v>6</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T7" si="4">S4/57*100</f>
+        <v>10.526315789473683</v>
+      </c>
+      <c r="V4" s="9">
+        <v>12</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W7" si="5">C4+G4+K4+O4+S4</f>
+        <v>134</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X7" si="6">W4/$W$7*100</f>
+        <v>9.1969800960878523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>112</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>23.880597014925371</v>
+      </c>
+      <c r="F5" s="4">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>103</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>34.563758389261743</v>
+      </c>
+      <c r="J5" s="4">
+        <v>21</v>
+      </c>
+      <c r="K5">
+        <v>165</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>26.190476190476193</v>
+      </c>
+      <c r="N5" s="4">
+        <v>21</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="R5" s="4">
+        <v>21</v>
+      </c>
+      <c r="S5">
+        <v>15</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="4"/>
+        <v>26.315789473684209</v>
+      </c>
+      <c r="V5" s="9">
+        <v>21</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="5"/>
+        <v>396</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="6"/>
+        <v>27.179135209334248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>119</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>25.373134328358208</v>
+      </c>
+      <c r="F6" s="4">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>112</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>37.583892617449663</v>
+      </c>
+      <c r="J6" s="4">
+        <v>22</v>
+      </c>
+      <c r="K6">
+        <v>232</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>36.82539682539683</v>
+      </c>
+      <c r="N6" s="9">
+        <v>22</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="R6" s="4">
+        <v>22</v>
+      </c>
+      <c r="S6">
+        <v>19</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="V6" s="9">
+        <v>22</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="5"/>
+        <v>484</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="6"/>
+        <v>33.218943033630751</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C7" s="6">
+        <f>SUM(C3:C6)</f>
+        <v>469</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G7" s="6">
+        <f>SUM(G3:G6)</f>
+        <v>298</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K7" s="6">
+        <f>SUM(K3:K6)</f>
+        <v>630</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="O7" s="6">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="S7" s="6">
+        <f>SUM(S3:S6)</f>
+        <v>57</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="5"/>
+        <v>1457</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="9">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f>G13/7*100</f>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="J13" s="4">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>315</v>
+      </c>
+      <c r="L13">
+        <f>K13/715*100</f>
+        <v>44.05594405594406</v>
+      </c>
+      <c r="N13" s="4">
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <v>137</v>
+      </c>
+      <c r="P13">
+        <f>O13/315*100</f>
+        <v>43.492063492063494</v>
+      </c>
+      <c r="V13" s="9">
+        <v>11</v>
+      </c>
+      <c r="W13">
+        <f>C13+G13+K13+O13</f>
+        <v>454</v>
+      </c>
+      <c r="X13">
+        <f>W13/$W$17*100</f>
+        <v>43.737957610789977</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="9">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H17" si="7">G14/7*100</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="J14" s="4">
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <v>70</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:L17" si="8">K14/715*100</f>
+        <v>9.79020979020979</v>
+      </c>
+      <c r="N14" s="4">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>20</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:P17" si="9">O14/315*100</f>
+        <v>6.3492063492063489</v>
+      </c>
+      <c r="V14" s="4">
+        <v>12</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ref="W14:W17" si="10">C14+G14+K14+O14</f>
+        <v>91</v>
+      </c>
+      <c r="X14">
+        <f t="shared" ref="X14:X17" si="11">W14/$W$17*100</f>
+        <v>8.7668593448940264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>21</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="7"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="J15" s="4">
+        <v>21</v>
+      </c>
+      <c r="K15">
+        <v>154</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="8"/>
+        <v>21.53846153846154</v>
+      </c>
+      <c r="N15" s="4">
+        <v>21</v>
+      </c>
+      <c r="O15">
+        <v>71</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="9"/>
+        <v>22.539682539682541</v>
+      </c>
+      <c r="V15" s="9">
+        <v>21</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="10"/>
+        <v>227</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="11"/>
+        <v>21.868978805394988</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="9">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="F16" s="4">
+        <v>22</v>
+      </c>
+      <c r="G16" s="6">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="7"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="J16" s="4">
+        <v>22</v>
+      </c>
+      <c r="K16">
+        <v>176</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="8"/>
+        <v>24.615384615384617</v>
+      </c>
+      <c r="N16" s="4">
+        <v>22</v>
+      </c>
+      <c r="O16">
+        <v>87</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="9"/>
+        <v>27.61904761904762</v>
+      </c>
+      <c r="V16" s="9">
+        <v>22</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="10"/>
+        <v>266</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="11"/>
+        <v>25.626204238921002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="G17" s="6">
+        <f>SUM(G13:G16)</f>
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="K17" s="6">
+        <f>SUM(K13:K16)</f>
+        <v>715</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="O17" s="6">
+        <f>SUM(O13:O16)</f>
+        <v>315</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="10"/>
+        <v>1038</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>11</v>
+      </c>
+      <c r="G23" s="6">
+        <v>45</v>
+      </c>
+      <c r="H23">
+        <f>G23/99*100</f>
+        <v>45.454545454545453</v>
+      </c>
+      <c r="J23" s="4">
+        <v>11</v>
+      </c>
+      <c r="K23">
+        <v>428</v>
+      </c>
+      <c r="L23">
+        <f>K23/1002*100</f>
+        <v>42.714570858283437</v>
+      </c>
+      <c r="N23" s="4">
+        <v>11</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <f>O23/7*100</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="V23" s="9">
+        <v>11</v>
+      </c>
+      <c r="W23">
+        <f>C23+G23+K23+O23</f>
+        <v>474</v>
+      </c>
+      <c r="X23">
+        <f>W23/$W$27*100</f>
+        <v>42.741208295761943</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B24" s="9">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>9</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H27" si="12">G24/99*100</f>
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="J24" s="4">
+        <v>12</v>
+      </c>
+      <c r="K24">
+        <v>119</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24:L27" si="13">K24/1002*100</f>
+        <v>11.876247504990021</v>
+      </c>
+      <c r="N24" s="4">
+        <v>12</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24:P27" si="14">O24/7*100</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="V24" s="4">
+        <v>12</v>
+      </c>
+      <c r="W24">
+        <f t="shared" ref="W24:W27" si="15">C24+G24+K24+O24</f>
+        <v>129</v>
+      </c>
+      <c r="X24">
+        <f t="shared" ref="X24:X27" si="16">W24/$W$27*100</f>
+        <v>11.632100991884581</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B25" s="9">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="F25" s="4">
+        <v>21</v>
+      </c>
+      <c r="G25">
+        <v>18</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="12"/>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="J25" s="4">
+        <v>21</v>
+      </c>
+      <c r="K25">
+        <v>202</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="13"/>
+        <v>20.159680638722556</v>
+      </c>
+      <c r="N25" s="4">
+        <v>21</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="14"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="V25" s="9">
+        <v>21</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="15"/>
+        <v>223</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="16"/>
+        <v>20.108205590622184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B26" s="9">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>22</v>
+      </c>
+      <c r="G26">
+        <v>27</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="12"/>
+        <v>27.27272727272727</v>
+      </c>
+      <c r="J26" s="4">
+        <v>22</v>
+      </c>
+      <c r="K26">
+        <v>253</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="13"/>
+        <v>25.249500998003992</v>
+      </c>
+      <c r="N26" s="4">
+        <v>22</v>
+      </c>
+      <c r="O26" s="6">
+        <v>3</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="14"/>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="V26" s="9">
+        <v>22</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="15"/>
+        <v>283</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="16"/>
+        <v>25.518485121731288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="G27" s="6">
+        <f>SUM(G23:G26)</f>
+        <v>99</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="K27" s="6">
+        <f>SUM(K23:K26)</f>
+        <v>1002</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="O27" s="6">
+        <f>SUM(O23:O26)</f>
+        <v>7</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="15"/>
+        <v>1109</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B33" s="9">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="F33" s="4">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>217</v>
+      </c>
+      <c r="H33">
+        <f>G33/446*100</f>
+        <v>48.654708520179376</v>
+      </c>
+      <c r="J33" s="9">
+        <v>11</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <f>K33/3*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="N33" s="4">
+        <v>11</v>
+      </c>
+      <c r="O33">
+        <v>6</v>
+      </c>
+      <c r="P33">
+        <f>O33/15*100</f>
+        <v>40</v>
+      </c>
+      <c r="V33" s="9">
+        <v>11</v>
+      </c>
+      <c r="W33">
+        <f>C33+G33+K33+O33</f>
+        <v>226</v>
+      </c>
+      <c r="X33">
+        <f>W33/$W$37*100</f>
+        <v>48.602150537634408</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>12</v>
+      </c>
+      <c r="G34">
+        <v>54</v>
+      </c>
+      <c r="H34">
+        <f>G34/446*100</f>
+        <v>12.107623318385651</v>
+      </c>
+      <c r="J34" s="9">
+        <v>12</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ref="L34:L37" si="17">K34/3*100</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
+        <v>12</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ref="P34:P37" si="18">O34/15*100</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="4">
+        <v>12</v>
+      </c>
+      <c r="W34">
+        <f t="shared" ref="W34:W37" si="19">C34+G34+K34+O34</f>
+        <v>54</v>
+      </c>
+      <c r="X34">
+        <f t="shared" ref="X34:X37" si="20">W34/$W$37*100</f>
+        <v>11.612903225806452</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B35" s="9">
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>21</v>
+      </c>
+      <c r="G35">
+        <v>76</v>
+      </c>
+      <c r="H35">
+        <f>G35/446*100</f>
+        <v>17.040358744394617</v>
+      </c>
+      <c r="J35" s="4">
+        <v>21</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="4">
+        <v>21</v>
+      </c>
+      <c r="O35">
+        <v>5</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="18"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="V35" s="9">
+        <v>21</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="19"/>
+        <v>81</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="20"/>
+        <v>17.419354838709676</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B36" s="9">
+        <v>22</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>22</v>
+      </c>
+      <c r="G36">
+        <v>99</v>
+      </c>
+      <c r="H36">
+        <f>G36/446*100</f>
+        <v>22.197309417040358</v>
+      </c>
+      <c r="J36" s="4">
+        <v>22</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="17"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="N36" s="4">
+        <v>22</v>
+      </c>
+      <c r="O36">
+        <v>4</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="18"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="V36" s="9">
+        <v>22</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="19"/>
+        <v>104</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="20"/>
+        <v>22.365591397849464</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="G37" s="6">
+        <f>SUM(G33:G36)</f>
+        <v>446</v>
+      </c>
+      <c r="H37">
+        <f>G37/446*100</f>
+        <v>100</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="O37" s="6">
+        <f>SUM(O33:O36)</f>
+        <v>15</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="19"/>
+        <v>465</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B42" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V42" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>60</v>
+      </c>
+      <c r="D43">
+        <f>C43/164*100</f>
+        <v>36.585365853658537</v>
+      </c>
+      <c r="F43" s="4">
+        <v>11</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <f>G43/13*100</f>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="J43" s="9">
+        <v>11</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>50</v>
+      </c>
+      <c r="V43" s="9">
+        <v>11</v>
+      </c>
+      <c r="W43">
+        <f>C43+G43+K43</f>
+        <v>62</v>
+      </c>
+      <c r="X43">
+        <f>W43/$W$47*100</f>
+        <v>34.63687150837989</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>21</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:D47" si="21">C44/164*100</f>
+        <v>12.804878048780488</v>
+      </c>
+      <c r="F44" s="4">
+        <v>12</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ref="H44:H47" si="22">G44/13*100</f>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="J44" s="4">
+        <v>12</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>50</v>
+      </c>
+      <c r="V44" s="4">
+        <v>12</v>
+      </c>
+      <c r="W44">
+        <f t="shared" ref="W44:W47" si="23">C44+G44+K44</f>
+        <v>23</v>
+      </c>
+      <c r="X44">
+        <f t="shared" ref="X44:X47" si="24">W44/$W$47*100</f>
+        <v>12.849162011173185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>21</v>
+      </c>
+      <c r="C45">
+        <v>38</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="21"/>
+        <v>23.170731707317074</v>
+      </c>
+      <c r="F45" s="4">
+        <v>21</v>
+      </c>
+      <c r="G45" s="6">
+        <v>6</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="22"/>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="J45" s="4">
+        <v>21</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="V45" s="9">
+        <v>21</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="23"/>
+        <v>44</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="24"/>
+        <v>24.581005586592177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="21"/>
+        <v>27.439024390243905</v>
+      </c>
+      <c r="F46" s="4">
+        <v>22</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="22"/>
+        <v>38.461538461538467</v>
+      </c>
+      <c r="J46" s="9">
+        <v>22</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="V46" s="9">
+        <v>22</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="23"/>
+        <v>50</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="24"/>
+        <v>27.932960893854748</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C47" s="6">
+        <f>SUM(C43:C46)</f>
+        <v>164</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+      <c r="G47" s="6">
+        <f>SUM(G43:G46)</f>
+        <v>13</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="K47" s="6">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>100</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="23"/>
+        <v>179</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="24"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B51" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R51" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V51" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X51" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B52" s="9">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <f>C3+C13+C23</f>
+        <v>182</v>
+      </c>
+      <c r="D52">
+        <f>C52/$C$56*100</f>
+        <v>38.641188959660298</v>
+      </c>
+      <c r="F52" s="9">
+        <v>11</v>
+      </c>
+      <c r="G52">
+        <v>69</v>
+      </c>
+      <c r="H52">
+        <v>23.154362416107382</v>
+      </c>
+      <c r="J52" s="9">
+        <v>11</v>
+      </c>
+      <c r="K52">
+        <f>K3+G13+G23+C33</f>
+        <v>223</v>
+      </c>
+      <c r="L52">
+        <f>K52/$K$56*100</f>
+        <v>30.257801899592945</v>
+      </c>
+      <c r="N52" s="9">
+        <v>11</v>
+      </c>
+      <c r="O52">
+        <f>O3+K13+K23+G33+C43</f>
+        <v>1020</v>
+      </c>
+      <c r="P52">
+        <f>O52/$O$56*100</f>
+        <v>43.776824034334766</v>
+      </c>
+      <c r="R52" s="9">
+        <v>11</v>
+      </c>
+      <c r="S52">
+        <f>O13+O23+K33+G43</f>
+        <v>141</v>
+      </c>
+      <c r="T52">
+        <f>S52/$S$56*100</f>
+        <v>41.715976331360949</v>
+      </c>
+      <c r="V52" s="9">
+        <v>11</v>
+      </c>
+      <c r="W52">
+        <f>S3+O33+K43</f>
+        <v>24</v>
+      </c>
+      <c r="X52">
+        <f>W52/$W$56*100</f>
+        <v>32.432432432432435</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B53" s="4">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:C56" si="25">C4+C14+C24</f>
+        <v>56</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:D56" si="26">C53/$C$56*100</f>
+        <v>11.8895966029724</v>
+      </c>
+      <c r="F53" s="4">
+        <v>12</v>
+      </c>
+      <c r="G53">
+        <v>14</v>
+      </c>
+      <c r="H53">
+        <v>4.6979865771812079</v>
+      </c>
+      <c r="J53" s="4">
+        <v>12</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ref="K53:K56" si="27">K4+G14+G24+C34</f>
+        <v>68</v>
+      </c>
+      <c r="L53">
+        <f t="shared" ref="L53:L56" si="28">K53/$K$56*100</f>
+        <v>9.2265943012211658</v>
+      </c>
+      <c r="N53" s="4">
+        <v>12</v>
+      </c>
+      <c r="O53">
+        <f t="shared" ref="O53:O56" si="29">O4+K14+K24+G34+C44</f>
+        <v>264</v>
+      </c>
+      <c r="P53">
+        <f t="shared" ref="P53:P56" si="30">O53/$O$56*100</f>
+        <v>11.330472103004292</v>
+      </c>
+      <c r="R53" s="4">
+        <v>12</v>
+      </c>
+      <c r="S53">
+        <f t="shared" ref="S53:S56" si="31">O14+O24+K34+G44</f>
+        <v>22</v>
+      </c>
+      <c r="T53">
+        <f t="shared" ref="T53:T56" si="32">S53/$S$56*100</f>
+        <v>6.5088757396449708</v>
+      </c>
+      <c r="V53" s="4">
+        <v>12</v>
+      </c>
+      <c r="W53">
+        <f t="shared" ref="W53:W56" si="33">S4+O34+K44</f>
+        <v>7</v>
+      </c>
+      <c r="X53">
+        <f t="shared" ref="X53:X56" si="34">W53/$W$56*100</f>
+        <v>9.4594594594594597</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B54" s="9">
+        <v>21</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="25"/>
+        <v>113</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="26"/>
+        <v>23.991507430997878</v>
+      </c>
+      <c r="F54" s="9">
+        <v>21</v>
+      </c>
+      <c r="G54">
+        <v>103</v>
+      </c>
+      <c r="H54">
+        <v>34.563758389261743</v>
+      </c>
+      <c r="J54" s="9">
+        <v>21</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="27"/>
+        <v>185</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="28"/>
+        <v>25.10176390773406</v>
+      </c>
+      <c r="N54" s="9">
+        <v>21</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="29"/>
+        <v>471</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="30"/>
+        <v>20.214592274678111</v>
+      </c>
+      <c r="R54" s="9">
+        <v>21</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="31"/>
+        <v>79</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="32"/>
+        <v>23.372781065088759</v>
+      </c>
+      <c r="V54" s="9">
+        <v>21</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="33"/>
+        <v>20</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="34"/>
+        <v>27.027027027027028</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B55" s="9">
+        <v>22</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="25"/>
+        <v>120</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="26"/>
+        <v>25.477707006369428</v>
+      </c>
+      <c r="F55" s="9">
+        <v>22</v>
+      </c>
+      <c r="G55">
+        <v>112</v>
+      </c>
+      <c r="H55">
+        <v>37.583892617449663</v>
+      </c>
+      <c r="J55" s="9">
+        <v>22</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="27"/>
+        <v>261</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="28"/>
+        <v>35.413839891451829</v>
+      </c>
+      <c r="N55" s="9">
+        <v>22</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="29"/>
+        <v>575</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="30"/>
+        <v>24.678111587982833</v>
+      </c>
+      <c r="R55" s="9">
+        <v>22</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="31"/>
+        <v>96</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="32"/>
+        <v>28.402366863905325</v>
+      </c>
+      <c r="V55" s="9">
+        <v>22</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="33"/>
+        <v>23</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="34"/>
+        <v>31.081081081081081</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <f t="shared" si="25"/>
+        <v>471</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="26"/>
+        <v>100</v>
+      </c>
+      <c r="G56">
+        <v>298</v>
+      </c>
+      <c r="H56">
+        <v>100</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="27"/>
+        <v>737</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="28"/>
+        <v>100</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="29"/>
+        <v>2330</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="31"/>
+        <v>338</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="32"/>
+        <v>100</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="33"/>
+        <v>74</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="34"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B60" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R60" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V60" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B61" s="9">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <f>C52+G52+K52+O52+S52+W52</f>
+        <v>1659</v>
+      </c>
+      <c r="D61">
+        <f>C61/$C$65*100</f>
+        <v>39.05367231638418</v>
+      </c>
+      <c r="F61" s="9">
+        <v>11</v>
+      </c>
+      <c r="G61">
+        <v>443</v>
+      </c>
+      <c r="H61">
+        <v>30.404941660947149</v>
+      </c>
+      <c r="J61" s="9">
+        <v>11</v>
+      </c>
+      <c r="K61">
+        <v>454</v>
+      </c>
+      <c r="L61">
+        <v>43.737957610789977</v>
+      </c>
+      <c r="N61" s="9">
+        <v>11</v>
+      </c>
+      <c r="O61">
+        <v>474</v>
+      </c>
+      <c r="P61">
+        <v>42.741208295761943</v>
+      </c>
+      <c r="R61" s="9">
+        <v>11</v>
+      </c>
+      <c r="S61">
+        <v>226</v>
+      </c>
+      <c r="T61">
+        <v>48.602150537634408</v>
+      </c>
+      <c r="V61" s="9">
+        <v>11</v>
+      </c>
+      <c r="W61">
+        <v>62</v>
+      </c>
+      <c r="X61">
+        <v>34.63687150837989</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B62" s="4">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62:C65" si="35">C53+G53+K53+O53+S53+W53</f>
+        <v>431</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62:D65" si="36">C62/$C$65*100</f>
+        <v>10.145951035781545</v>
+      </c>
+      <c r="F62" s="4">
+        <v>12</v>
+      </c>
+      <c r="G62">
+        <v>134</v>
+      </c>
+      <c r="H62">
+        <v>9.1969800960878523</v>
+      </c>
+      <c r="J62" s="4">
+        <v>12</v>
+      </c>
+      <c r="K62">
+        <v>91</v>
+      </c>
+      <c r="L62">
+        <v>8.7668593448940264</v>
+      </c>
+      <c r="N62" s="4">
+        <v>12</v>
+      </c>
+      <c r="O62">
+        <v>129</v>
+      </c>
+      <c r="P62">
+        <v>11.632100991884581</v>
+      </c>
+      <c r="R62" s="4">
+        <v>12</v>
+      </c>
+      <c r="S62">
+        <v>54</v>
+      </c>
+      <c r="T62">
+        <v>11.612903225806452</v>
+      </c>
+      <c r="V62" s="4">
+        <v>12</v>
+      </c>
+      <c r="W62">
+        <v>23</v>
+      </c>
+      <c r="X62">
+        <v>12.849162011173185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B63" s="9">
+        <v>21</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="35"/>
+        <v>971</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="36"/>
+        <v>22.857815442561204</v>
+      </c>
+      <c r="F63" s="9">
+        <v>21</v>
+      </c>
+      <c r="G63">
+        <v>396</v>
+      </c>
+      <c r="H63">
+        <v>27.179135209334248</v>
+      </c>
+      <c r="J63" s="9">
+        <v>21</v>
+      </c>
+      <c r="K63">
+        <v>227</v>
+      </c>
+      <c r="L63">
+        <v>21.868978805394988</v>
+      </c>
+      <c r="N63" s="9">
+        <v>21</v>
+      </c>
+      <c r="O63">
+        <v>223</v>
+      </c>
+      <c r="P63">
+        <v>20.108205590622184</v>
+      </c>
+      <c r="R63" s="9">
+        <v>21</v>
+      </c>
+      <c r="S63">
+        <v>81</v>
+      </c>
+      <c r="T63">
+        <v>17.419354838709676</v>
+      </c>
+      <c r="V63" s="9">
+        <v>21</v>
+      </c>
+      <c r="W63">
+        <v>44</v>
+      </c>
+      <c r="X63">
+        <v>24.581005586592177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B64" s="9">
+        <v>22</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="35"/>
+        <v>1187</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="36"/>
+        <v>27.942561205273069</v>
+      </c>
+      <c r="F64" s="9">
+        <v>22</v>
+      </c>
+      <c r="G64">
+        <v>484</v>
+      </c>
+      <c r="H64">
+        <v>33.218943033630751</v>
+      </c>
+      <c r="J64" s="9">
+        <v>22</v>
+      </c>
+      <c r="K64">
+        <v>266</v>
+      </c>
+      <c r="L64">
+        <v>25.626204238921002</v>
+      </c>
+      <c r="N64" s="9">
+        <v>22</v>
+      </c>
+      <c r="O64">
+        <v>283</v>
+      </c>
+      <c r="P64">
+        <v>25.518485121731288</v>
+      </c>
+      <c r="R64" s="9">
+        <v>22</v>
+      </c>
+      <c r="S64">
+        <v>104</v>
+      </c>
+      <c r="T64">
+        <v>22.365591397849464</v>
+      </c>
+      <c r="V64" s="9">
+        <v>22</v>
+      </c>
+      <c r="W64">
+        <v>50</v>
+      </c>
+      <c r="X64">
+        <v>27.932960893854748</v>
+      </c>
+    </row>
+    <row r="65" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <f t="shared" si="35"/>
+        <v>4248</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="36"/>
+        <v>100</v>
+      </c>
+      <c r="G65">
+        <v>1457</v>
+      </c>
+      <c r="H65">
+        <v>100</v>
+      </c>
+      <c r="K65">
+        <v>1038</v>
+      </c>
+      <c r="L65">
+        <v>100</v>
+      </c>
+      <c r="O65">
+        <v>1109</v>
+      </c>
+      <c r="P65">
+        <v>100</v>
+      </c>
+      <c r="S65">
+        <v>465</v>
+      </c>
+      <c r="T65">
+        <v>100</v>
+      </c>
+      <c r="W65">
+        <v>179</v>
+      </c>
+      <c r="X65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R68" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R69" s="9">
+        <v>11</v>
+      </c>
+      <c r="S69">
+        <f>S61+W61</f>
+        <v>288</v>
+      </c>
+      <c r="T69">
+        <f>S69/$S$73*100</f>
+        <v>44.720496894409941</v>
+      </c>
+    </row>
+    <row r="70" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R70" s="4">
+        <v>12</v>
+      </c>
+      <c r="S70">
+        <f t="shared" ref="S70:S73" si="37">S62+W62</f>
+        <v>77</v>
+      </c>
+      <c r="T70">
+        <f t="shared" ref="T70:T73" si="38">S70/$S$73*100</f>
+        <v>11.956521739130435</v>
+      </c>
+    </row>
+    <row r="71" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R71" s="9">
+        <v>21</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="37"/>
+        <v>125</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="38"/>
+        <v>19.409937888198758</v>
+      </c>
+    </row>
+    <row r="72" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R72" s="9">
+        <v>22</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="37"/>
+        <v>154</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="38"/>
+        <v>23.913043478260871</v>
+      </c>
+    </row>
+    <row r="73" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="S73">
+        <f t="shared" si="37"/>
+        <v>644</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>